--- a/data/genius_Bushido_Sonny-black-II.xlsx
+++ b/data/genius_Bushido_Sonny-black-II.xlsx
@@ -407,8 +407,59 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Songtext zu „Assassin“][Intro]Yeah[Part 1]Check, jetzt ist Payback, ich bin Assassin (Hah)Black schickt euch in die Hölle, nicht ins ParadiesMein Rap ist Heavymetal, ich hab' AppetitMister Cordon Sport bringt den Krieg mitten nach BerlinHabt ihr gedacht, dass ihr mein'n Untergang besiegelt habt?Doch hunderttausend Fans feuern Schüsse aus dem SchiebedachWie schon mal gesagt: Sonny Black ist ein gemachter MannBretter' wieder auf die Eins, damit du nicht mehr atmen kannstHör gut zu, du Nutte, jetzt bin ich am DrückerIch war kurz nett, doch jetzt fick' ich wieder eure MütterEure Rapper rufen bei mir an und bitten mich um FeaturepartsDoch nicht mal mit dem Leben könnten sie bezahlenAlles ist beim Alten, Sonny sagt, wohin die Reise gehtIch fick' jeden, der nicht auf der richtigen Seite stehtDicka, herzlich willkommen hier in BabylonDenn in Babylon ist Jagdsaison[Hook]Du kannst renn'n, doch du weißt, dass ich finde, wenn ich sucheS-O-Doppel-N heißt: Jetzt fick' ich euch, weil ich am Zug binWenn ihr denkt, es zu versuchen, sag' ich: Sonny ist nicht AladdinSonny kommt bei Nacht, ich bin AssassinDu kannst renn'n, doch du weißt, dass ich finde, wenn ich sucheS-O-Doppel-N heißt: Jetzt fick' ich euch, weil ich am Zug binWenn ihr denkt, es zu versuchen, sag' ich: Sonny ist nicht AladdinSonny kommt bei Nacht, ich bin Assassin, yeah
-[Part 2]Check, back am Set, ich bin legendär (Hah)Renn, denn Sonny Black ist nicht irgendwerSie hab'n geschossen, doch jetzt sind die Magazine leerUnd wundern sich im Ernst, dass der Rapassassin sich wehrtAh, ich mach' euch dem Erdboden gleichDamit Ersguterjunge eine Sperrzone bleibtMann, jeder weiß, dass die Szene mich beneidetUnd dass „Fick nie mit Sonny!“ meine Regel Nummer eins istHör gut zu, du Nutte, King Bushido ist auf SendungEs ist meine Stadt, Berlin ist ein BrennpunktIch in der Versenkung? Darauf musst du lange wartenDu und deine Kameraden könnt jetzt eure Waffen ladenAber keiner von euch da, der auf mei'm Level istIch hab' gelernt: Hunde, die gefährlich sind, bell'n nichtDicka, herzlich willkommen hier in BabylonDenn in Babylon ist Jagdsaison[Hook]Du kannst renn'n, doch du weißt, dass ich finde, wenn ich sucheS-O-Doppel-N heißt: Jetzt fick' ich euch, weil ich am Zug binWenn ihr denkt, es zu versuchen, sag' ich: Sonny ist nicht AladdinSonny kommt bei Nacht, ich bin AssassinDu kannst renn'n, doch du weißt, dass ich finde, wenn ich sucheS-O-Doppel-N heißt: Jetzt fick' ich euch, weil ich am Zug binWenn ihr denkt, es zu versuchen, sag' ich: Sonny ist nicht AladdinSonny kommt bei Nacht, ich bin Assassin, yeah</t>
+          <t>[Songtext zu „Assassin“]
+[Intro]
+Yeah
+[Part 1]
+Check, jetzt ist Payback, ich bin Assassin (Hah)
+Black schickt euch in die Hölle, nicht ins Paradies
+Mein Rap ist Heavymetal, ich hab' Appetit
+Mister Cordon Sport bringt den Krieg mitten nach Berlin
+Habt ihr gedacht, dass ihr mein'n Untergang besiegelt habt?
+Doch hunderttausend Fans feuern Schüsse aus dem Schiebedach
+Wie schon mal gesagt: Sonny Black ist ein gemachter MannBretter' wieder auf die Eins, damit du nicht mehr atmen kannst
+Hör gut zu, du Nutte, jetzt bin ich am Drücker
+Ich war kurz nett, doch jetzt fick' ich wieder eure Mütter
+Eure Rapper rufen bei mir an und bitten mich um Featureparts
+Doch nicht mal mit dem Leben könnten sie bezahlen
+Alles ist beim Alten, Sonny sagt, wohin die Reise geht
+Ich fick' jeden, der nicht auf der richtigen Seite steht
+Dicka, herzlich willkommen hier in Babylon
+Denn in Babylon ist Jagdsaison
+[Hook]
+Du kannst renn'n, doch du weißt, dass ich finde, wenn ich suche
+S-O-Doppel-N heißt: Jetzt fick' ich euch, weil ich am Zug bin
+Wenn ihr denkt, es zu versuchen, sag' ich: Sonny ist nicht Aladdin
+Sonny kommt bei Nacht, ich bin Assassin
+Du kannst renn'n, doch du weißt, dass ich finde, wenn ich suche
+S-O-Doppel-N heißt: Jetzt fick' ich euch, weil ich am Zug bin
+Wenn ihr denkt, es zu versuchen, sag' ich: Sonny ist nicht Aladdin
+Sonny kommt bei Nacht, ich bin Assassin, yeah
+[Part 2]
+Check, back am Set, ich bin legendär (Hah)
+Renn, denn Sonny Black ist nicht irgendwer
+Sie hab'n geschossen, doch jetzt sind die Magazine leerUnd wundern sich im Ernst, dass der Rapassassin sich wehrt
+Ah, ich mach' euch dem Erdboden gleich
+Damit Ersguterjunge eine Sperrzone bleibt
+Mann, jeder weiß, dass die Szene mich beneidet
+Und dass „Fick nie mit Sonny!“ meine Regel Nummer eins ist
+Hör gut zu, du Nutte, King Bushido ist auf Sendung
+Es ist meine Stadt, Berlin ist ein Brennpunkt
+Ich in der Versenkung? Darauf musst du lange warten
+Du und deine Kameraden könnt jetzt eure Waffen laden
+Aber keiner von euch da, der auf mei'm Level ist
+Ich hab' gelernt: Hunde, die gefährlich sind, bell'n nicht
+Dicka, herzlich willkommen hier in Babylon
+Denn in Babylon ist Jagdsaison
+[Hook]
+Du kannst renn'n, doch du weißt, dass ich finde, wenn ich suche
+S-O-Doppel-N heißt: Jetzt fick' ich euch, weil ich am Zug bin
+Wenn ihr denkt, es zu versuchen, sag' ich: Sonny ist nicht Aladdin
+Sonny kommt bei Nacht, ich bin Assassin
+Du kannst renn'n, doch du weißt, dass ich finde, wenn ich suche
+S-O-Doppel-N heißt: Jetzt fick' ich euch, weil ich am Zug bin
+Wenn ihr denkt, es zu versuchen, sag' ich: Sonny ist nicht Aladdin
+Sonny kommt bei Nacht, ich bin Assassin, yeah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -462,9 +513,86 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Songtext zu „Giftgrünes B“][Hook]Wenn es dunkel wird, sehen sie das giftgrüne BAlle blasen, so als würde ich vor Windmühlen steh'nKoks weißer als in Kitzbühel der SchneeDoch die Augen dafür schwarz wie der Smog, NutteWenn es dunkel wird, sehen sie das giftgrüne BAlle blasen, so als würde ich vor Windmühlen steh'nKoks weißer als in Kitzbühel der SchneeDoch die Augen dafür schwarz wie der Smog, Nutte[Part 1]Ich lass' dich Nuttensohn brenn'n, besser renn, wenn der GeneralDeine Mutter bangt und du flennst, es ist mir egalDieses Album ist so wie ein Eimer voll BenzinUnd ein Streichholz, das ich quer durch eure Fresse zieh'Ihr seid alle nicht Street, ihr seid Hunde, Yani, tam PiçGuck, wie deutscher Rap grad Koks von mei'm Schwanz ziehtS-O-N, Ghettochef, was für SOS?Gibt es Stress, verwandelt sich Berlin in ein WespennestKanakenattitüde, Gel in den Haar'nIn 'nem Käfig aus Stahl, der Mercedes in SchwarzSunpoint, meine braune Haut und das AftershaveZwei Gründe, wieso Flers Mutter wie 'ne Schlampe blästHunde wollen kurz einmal Beef, doch bereuen dasDenn ich lass' sie tauchen heute Nacht in 'nem SäurefassSag mir, welche Missgeburt will gerne mit mir Stress?Meine Stimme Platin so wie die American Express
-[Hook]Wenn es dunkel wird, sehen sie das giftgrüne BAlle blasen, so als würde ich vor Windmühlen steh'nKoks weißer als in Kitzbühel der SchneeDoch die Augen dafür schwarz wie der Smog, NutteWenn es dunkel wird, sehen sie das giftgrüne BAlle blasen, so als würde ich vor Windmühlen steh'nKoks weißer als in Kitzbühel der SchneeDoch die Augen dafür schwarz wie der Smog, Nutte[Part 2]Jeder Bastard will jetzt Fame, nur ein Uppercut, du schläfstMit 'nem Sabberlatz, ich geh' als ob mein Schatten an mir klebtMach' ein Massaker in zehn, neun, acht, sieben, sechsNimm die Beine in die Hand, wenn du rennst, was für 18 Cousengs?Damals Crackrocks, eure Autos MatchboxMeine Stimme sprengt deine Türe wie die Black OpsZieh' dich an den Dreadlocks quer durch dein DreckslochWenn ich meine Tracks dropp', treffen sie wie HeadshotsYeah, sorry, ich bin keiner dieser Piç-RapperHeute haben sogar meine Schließfächer SchließfächerWährend du Brieftaschen klauen gehst, du KleinganoveHat meine Wallet ganz alleine über drei MillionenGroßer AMG, Junge, ich hab' große ReifenSamra lässt sich wie ein Hund durch seine Wohnung peitschenEGJ ist der GangnameDeutscher Rap ist mein SM-Sklave, cha-tfuh!
-[Hook]Wenn es dunkel wird, sehen sie das giftgrüne BAlle blasen, so als würde ich vor Windmühlen steh'nKoks weißer als in Kitzbühel der SchneeDoch die Augen dafür schwarz wie der Smog, NutteWenn es dunkel wird, sehen sie das giftgrüne BAlle blasen, so als würde ich vor Windmühlen steh'nKoks weißer als in Kitzbühel der SchneeDoch die Augen dafür schwarz wie der Smog, Nutte[Bridge]"OverdoseOverdose, overdose music""Nothin' but the real shit""I make it hotter than your thermostats""OverdoseOverdose, overdose music""I don't fuck around, dunny—it's most real""It don't get sicker than that"[Hook]Wenn es dunkel wird, sehen sie das giftgrüne BAlle blasen, so als würde ich vor Windmühlen steh'nKoks weißer als in Kitzbühel der SchneeDoch die Augen dafür schwarz wie der Smog, NutteWenn es dunkel wird, sehen sie das giftgrüne BAlle blasen, so als würde ich vor Windmühlen steh'nKoks weißer als in Kitzbühel der SchneeDoch die Augen dafür schwarz wie der Smog, Nutte</t>
+          <t>[Songtext zu „Giftgrünes B“]
+[Hook]
+Wenn es dunkel wird, sehen sie das giftgrüne B
+Alle blasen, so als würde ich vor Windmühlen steh'n
+Koks weißer als in Kitzbühel der Schnee
+Doch die Augen dafür schwarz wie der Smog, Nutte
+Wenn es dunkel wird, sehen sie das giftgrüne B
+Alle blasen, so als würde ich vor Windmühlen steh'n
+Koks weißer als in Kitzbühel der Schnee
+Doch die Augen dafür schwarz wie der Smog, Nutte
+[Part 1]
+Ich lass' dich Nuttensohn brenn'n, besser renn, wenn der General
+Deine Mutter bangt und du flennst, es ist mir egal
+Dieses Album ist so wie ein Eimer voll Benzin
+Und ein Streichholz, das ich quer durch eure Fresse zieh'
+Ihr seid alle nicht Street, ihr seid Hunde, Yani, tam Piç
+Guck, wie deutscher Rap grad Koks von mei'm Schwanz zieht
+S-O-N, Ghettochef, was für SOS?
+Gibt es Stress, verwandelt sich Berlin in ein Wespennest
+Kanakenattitüde, Gel in den Haar'n
+In 'nem Käfig aus Stahl, der Mercedes in Schwarz
+Sunpoint, meine braune Haut und das Aftershave
+Zwei Gründe, wieso Flers Mutter wie 'ne Schlampe bläst
+Hunde wollen kurz einmal Beef, doch bereuen das
+Denn ich lass' sie tauchen heute Nacht in 'nem Säurefass
+Sag mir, welche Missgeburt will gerne mit mir Stress?
+Meine Stimme Platin so wie die American Express
+[Hook]
+Wenn es dunkel wird, sehen sie das giftgrüne B
+Alle blasen, so als würde ich vor Windmühlen steh'n
+Koks weißer als in Kitzbühel der Schnee
+Doch die Augen dafür schwarz wie der Smog, Nutte
+Wenn es dunkel wird, sehen sie das giftgrüne B
+Alle blasen, so als würde ich vor Windmühlen steh'n
+Koks weißer als in Kitzbühel der Schnee
+Doch die Augen dafür schwarz wie der Smog, Nutte
+[Part 2]
+Jeder Bastard will jetzt Fame, nur ein Uppercut, du schläfst
+Mit 'nem Sabberlatz, ich geh' als ob mein Schatten an mir klebt
+Mach' ein Massaker in zehn, neun, acht, sieben, sechs
+Nimm die Beine in die Hand, wenn du rennst, was für 18 Cousengs?
+Damals Crackrocks, eure Autos Matchbox
+Meine Stimme sprengt deine Türe wie die Black Ops
+Zieh' dich an den Dreadlocks quer durch dein Drecksloch
+Wenn ich meine Tracks dropp', treffen sie wie Headshots
+Yeah, sorry, ich bin keiner dieser Piç-Rapper
+Heute haben sogar meine Schließfächer Schließfächer
+Während du Brieftaschen klauen gehst, du Kleinganove
+Hat meine Wallet ganz alleine über drei Millionen
+Großer AMG, Junge, ich hab' große Reifen
+Samra lässt sich wie ein Hund durch seine Wohnung peitschen
+EGJ ist der Gangname
+Deutscher Rap ist mein SM-Sklave, cha-tfuh!
+[Hook]
+Wenn es dunkel wird, sehen sie das giftgrüne B
+Alle blasen, so als würde ich vor Windmühlen steh'n
+Koks weißer als in Kitzbühel der Schnee
+Doch die Augen dafür schwarz wie der Smog, Nutte
+Wenn es dunkel wird, sehen sie das giftgrüne B
+Alle blasen, so als würde ich vor Windmühlen steh'n
+Koks weißer als in Kitzbühel der Schnee
+Doch die Augen dafür schwarz wie der Smog, Nutte
+[Bridge]
+"Overdose
+Overdose, overdose music"
+"Nothin' but the real shit"
+"I make it hotter than your thermostats"
+"Overdose
+Overdose, overdose music"
+"I don't fuck around, dunny—it's most real"
+"It don't get sicker than that"
+[Hook]
+Wenn es dunkel wird, sehen sie das giftgrüne B
+Alle blasen, so als würde ich vor Windmühlen steh'n
+Koks weißer als in Kitzbühel der Schnee
+Doch die Augen dafür schwarz wie der Smog, Nutte
+Wenn es dunkel wird, sehen sie das giftgrüne B
+Alle blasen, so als würde ich vor Windmühlen steh'n
+Koks weißer als in Kitzbühel der Schnee
+Doch die Augen dafür schwarz wie der Smog, Nutte</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -518,8 +646,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Songtext zu „Back to the Roots“][Intro]Yeah[Part 1]Ich hab' erfunden, was ihr jetzt kopiertIch bin der Grund, weshalb ihr existiertWieso ich keinen von euch respektier’Augen so wie Lava, meine Mimik ist versteinertVon oben wirkt ihr Möchtegern-Bushidos immer kleinerHinter den Kulissen würde jeder gerne reden woll'nIrgendetwas klären, doch ich kack' auf ihre RegelnHab’ nicht viel außer mein'n Segen, die Familie und meine JungsGib mir einen Grund und ich hinterlasse weißen DunstLasse sie im Glauben, jemand könnte sie beschützenDabei reicht es für mich, nur einmal das Telefon zu zückenHinter mir sind viele Brücken, die verbrannt wurdenAber meine Stimme ist ein Sturm für ihre SandburgenJa, ich sitze abends wieder wach und sag', ich muss Geduld habenEngel kämpft mit Teufel auf den SchulternSie brauchen sich nicht wundern, denn irgendwann, da schmeckst du dein BlutUnd dann weißt du, Sonny Black ist back to the roots[Hook]Wenn ich will, dann geh' ich morgen wieder back to the rootsUnd dann fick' ich jeden einzelnen Couseng, den du rufstEs ist wieder Let's Dance und du Kek wirst besuchtMit der Brechstange und du Hund verreckst in dei'm BlutWenn ich will, dann geh' ich morgen wieder back to the rootsUnd dann fick’ ich jeden einzelnen Couseng, den du rufstEs ist wieder Let’s Dance und du Kek wirst besuchtMit der Brechstange und du Hund verreckst in dei'm Blut
-[Part 2]Wenn ich will, dann holt ihr morgen eure Ruder rausDenn wenn ich will, dann weichst du morgen ein paar Kugeln ausStraßenpolitik, ich hab’ den einzig wahren DoktortitelUnd kein Gehör für die Gespräche, die die Fotzen leakenSonny Black, geh' sogar auf Eins, wenn ich verschiebeDein Album geht niemals auf Eins, wenn ich releaseDein Rücken würde gerne chill'n, weil ich Million'n verdieneBei euch gibt es höchstens Groupies und paar DosenbiereLächerliches Game, darum bleibe ich so kaltWeil ich ein Monopol bin in menschlicher GestaltGoldene, Platin, ausverkaufte Tour’nBehind the Scenes, eure Mütter tauchen auf als Hur'nTelefone klingeln, der Çay wird serviertSie würden gerne über meine Lage diskutier'nZeigen mir 'ne Kugel, sie ist an euch Maden adressiertWenn ich ja sage, fahren sie zu dir, Nutte[Hook]Wenn ich will, dann geh' ich morgen wieder back to the rootsUnd dann fick' ich jeden einzelnen Couseng, den du rufstEs ist wieder Let's Dance und du Kek wirst besuchtMit der Brechstange und du Hund verreckst in dei'm BlutWenn ich will, dann geh' ich morgen wieder back to the rootsUnd dann fick' ich jeden einzelnen Couseng, den du rufstEs ist wieder Let's Dance und du Kek wirst besuchtMit der Brechstange und du Hund verreckst in dei'm Blut</t>
+          <t>[Songtext zu „Back to the Roots“]
+[Intro]
+Yeah
+[Part 1]
+Ich hab' erfunden, was ihr jetzt kopiert
+Ich bin der Grund, weshalb ihr existiert
+Wieso ich keinen von euch respektier’
+Augen so wie Lava, meine Mimik ist versteinert
+Von oben wirkt ihr Möchtegern-Bushidos immer kleiner
+Hinter den Kulissen würde jeder gerne reden woll'n
+Irgendetwas klären, doch ich kack' auf ihre Regeln
+Hab’ nicht viel außer mein'n Segen, die Familie und meine Jungs
+Gib mir einen Grund und ich hinterlasse weißen Dunst
+Lasse sie im Glauben, jemand könnte sie beschützen
+Dabei reicht es für mich, nur einmal das Telefon zu zücken
+Hinter mir sind viele Brücken, die verbrannt wurden
+Aber meine Stimme ist ein Sturm für ihre Sandburgen
+Ja, ich sitze abends wieder wach und sag', ich muss Geduld haben
+Engel kämpft mit Teufel auf den Schultern
+Sie brauchen sich nicht wundern, denn irgendwann, da schmeckst du dein Blut
+Und dann weißt du, Sonny Black ist back to the roots
+[Hook]
+Wenn ich will, dann geh' ich morgen wieder back to the roots
+Und dann fick' ich jeden einzelnen Couseng, den du rufst
+Es ist wieder Let's Dance und du Kek wirst besucht
+Mit der Brechstange und du Hund verreckst in dei'm Blut
+Wenn ich will, dann geh' ich morgen wieder back to the roots
+Und dann fick’ ich jeden einzelnen Couseng, den du rufst
+Es ist wieder Let’s Dance und du Kek wirst besucht
+Mit der Brechstange und du Hund verreckst in dei'm Blut
+[Part 2]
+Wenn ich will, dann holt ihr morgen eure Ruder raus
+Denn wenn ich will, dann weichst du morgen ein paar Kugeln aus
+Straßenpolitik, ich hab’ den einzig wahren Doktortitel
+Und kein Gehör für die Gespräche, die die Fotzen leaken
+Sonny Black, geh' sogar auf Eins, wenn ich verschiebe
+Dein Album geht niemals auf Eins, wenn ich release
+Dein Rücken würde gerne chill'n, weil ich Million'n verdiene
+Bei euch gibt es höchstens Groupies und paar Dosenbiere
+Lächerliches Game, darum bleibe ich so kalt
+Weil ich ein Monopol bin in menschlicher Gestalt
+Goldene, Platin, ausverkaufte Tour’n
+Behind the Scenes, eure Mütter tauchen auf als Hur'n
+Telefone klingeln, der Çay wird serviert
+Sie würden gerne über meine Lage diskutier'n
+Zeigen mir 'ne Kugel, sie ist an euch Maden adressiert
+Wenn ich ja sage, fahren sie zu dir, Nutte
+[Hook]
+Wenn ich will, dann geh' ich morgen wieder back to the roots
+Und dann fick' ich jeden einzelnen Couseng, den du rufst
+Es ist wieder Let's Dance und du Kek wirst besucht
+Mit der Brechstange und du Hund verreckst in dei'm Blut
+Wenn ich will, dann geh' ich morgen wieder back to the roots
+Und dann fick' ich jeden einzelnen Couseng, den du rufst
+Es ist wieder Let's Dance und du Kek wirst besucht
+Mit der Brechstange und du Hund verreckst in dei'm Blut</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -573,9 +755,62 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Songtext zu „Ghetto Arroganz“][Hook]Ich hole wieder meine Cordon aus dem WaffenschrankDeutscher Rap ist nur ein Krüppel, der zu Ragga tanztEs ist Sonny Black, Ghetto-ArroganzDeine Mutter will kein'n Beef, sondern Schwanz, yeahIch hole wieder meine Cordon aus dem WaffenschrankDeutscher Rap ist nur ein Krüppel, der zu Ragga tanztEs ist Sonny Black, Ghetto-ArroganzDeine Mutter will kein'n Beef, sondern Schwanz, yeah[Part 1]Pechschwarzer Hoodie und 'ne pеchschwarze JackeIn 'nem pеchschwarzen Benz, yeah, Rapstar-KanakeA-Prominenz, nein, ich kenne keine GrenzenIrgendwelche Schwänze versuchen mich zu cancelnJa, ich mach' im Backstage nebenbei ein SextapeDeine Schlampenmutter fickt mit jedem und das FlatrateIch bin der einzige wahre Junge mit dem GangstersoundUnd jetzt hol uns Pfefferminztee, du HangaroundJUICE ist am Ende und auch VIVA ist totMache 100k im Monat mit dem StreamkatalogLauf' in deine Wohnung, zieh' die Skimaske hochEine Faust und du Fotze musst zum Kieferchirurg, yeahEs ist zu spät für euch zu kapitulier'nDeine Möchtegern-Abis sagen „Abi“ zu mirHabt ihr alle echt vergessen, wer der Pate hier ist?Kein Problem, es werden alle gefickt, Nutte, yeah
-[Hook]Ich hole wieder meine Cordon aus dem WaffenschrankDeutscher Rap ist nur ein Krüppel, der zu Ragga tanztEs ist Sonny Black, Ghetto-ArroganzDeine Mutter will kein'n Beef, sondern Schwanz, yeahIch hole wieder meine Cordon aus dem WaffenschrankDeutscher Rap ist nur ein Krüppel, der zu Ragga tanztEs ist Sonny Black, Ghetto-ArroganzDeine Mutter will kein'n Beef, sondern Schwanz, yeah[Part 2]Oliver Pocher macht mir ein'n auf HardrockerBreche diesen Zahnstocher durch mit einem BarhockerIch bin auf Jagd, keiner redet sich da rausDenn wie Küblböck lehnten sich zu viele weit hinausEs ist wieder Beef, Nutte, tretet alle anSamra ist auf allen Vier'n und betet zum SheytanDieses Koks macht verrückt, sie verkaufen ihre Seel'nDoch ich trage wieder Cordon Sport und laufe durch den RegenIhr seid T-O-T, zocke wieder WoWIn meiner Hand wird die MPC zu TNTWerfe eine Bombe mitten auf die Love IslandUnd ficke jeden Einzelnen von diesen ArschgeigenCosimo hängt wieder ab auf ein paar FlohmärktenIn der Kälte, bis sich seine Hamsterbacken rot färbenWem willst du droh'n? Ich zerlege diesen BeatS-O-N-N-Y, Mission complete, Nutte
-[Hook]Ich hole wieder meine Cordon aus dem WaffenschrankDeutscher Rap ist nur ein Krüppel, der zu Ragga tanztEs ist Sonny Black, Ghetto-ArroganzDeine Mutter will kein'n Beef, sondern Schwanz, yeahIch hole wieder meine Cordon aus dem WaffenschrankDeutscher Rap ist nur ein Krüppel, der zu Ragga tanztEs ist Sonny Black, Ghetto-ArroganzDeine Mutter will kein'n Beef, sondern Schwanz, yeah</t>
+          <t>[Songtext zu „Ghetto Arroganz“]
+[Hook]
+Ich hole wieder meine Cordon aus dem Waffenschrank
+Deutscher Rap ist nur ein Krüppel, der zu Ragga tanzt
+Es ist Sonny Black, Ghetto-Arroganz
+Deine Mutter will kein'n Beef, sondern Schwanz, yeah
+Ich hole wieder meine Cordon aus dem Waffenschrank
+Deutscher Rap ist nur ein Krüppel, der zu Ragga tanzt
+Es ist Sonny Black, Ghetto-Arroganz
+Deine Mutter will kein'n Beef, sondern Schwanz, yeah
+[Part 1]
+Pechschwarzer Hoodie und 'ne pеchschwarze Jacke
+In 'nem pеchschwarzen Benz, yeah, Rapstar-Kanake
+A-Prominenz, nein, ich kenne keine Grenzen
+Irgendwelche Schwänze versuchen mich zu canceln
+Ja, ich mach' im Backstage nebenbei ein Sextape
+Deine Schlampenmutter fickt mit jedem und das Flatrate
+Ich bin der einzige wahre Junge mit dem GangstersoundUnd jetzt hol uns Pfefferminztee, du Hangaround
+JUICE ist am Endeund auchVIVAist tot
+Mache 100k im Monat mit dem Streamkatalog
+Lauf' in deine Wohnung, zieh' die Skimaske hoch
+Eine Faust und du Fotze musst zum Kieferchirurg, yeah
+Es ist zu spät für euch zu kapitulier'n
+Deine Möchtegern-Abis sagen „Abi“ zu mir
+Habt ihr alle echt vergessen, wer der Pate hier ist?
+Kein Problem, es werden alle gefickt, Nutte, yeah
+[Hook]
+Ich hole wieder meine Cordon aus dem Waffenschrank
+Deutscher Rap ist nur ein Krüppel, der zu Ragga tanzt
+Es ist Sonny Black, Ghetto-Arroganz
+Deine Mutter will kein'n Beef, sondern Schwanz, yeah
+Ich hole wieder meine Cordon aus dem Waffenschrank
+Deutscher Rap ist nur ein Krüppel, der zu Ragga tanzt
+Es ist Sonny Black, Ghetto-Arroganz
+Deine Mutter will kein'n Beef, sondern Schwanz, yeah
+[Part 2]
+Oliver Pocher macht mir ein'n auf HardrockerBreche diesen Zahnstocher durch mit einem Barhocker
+Ich bin auf Jagd, keiner redet sich da rausDenn wie Küblböck lehnten sich zu viele weit hinaus
+Es ist wieder Beef, Nutte, tretet alle an
+Samra ist auf allen Vier'n und betet zum SheytanDieses Koks macht verrückt, sie verkaufen ihre Seel'n
+Doch ich trage wieder Cordon Sport und laufe durch den Regen
+Ihr seid T-O-T, zocke wiederWoW
+In meiner Hand wird die MPC zu TNT
+Werfe eine Bombe mitten auf die Love IslandUnd ficke jeden Einzelnen von diesen Arschgeigen
+Cosimo hängt wieder ab auf ein paar FlohmärktenIn der Kälte, bis sich seine Hamsterbacken rot färben
+Wem willst du droh'n? Ich zerlege diesen Beat
+S-O-N-N-Y,Mission complete, Nutte
+[Hook]
+Ich hole wieder meine Cordon aus dem Waffenschrank
+Deutscher Rap ist nur ein Krüppel, der zu Ragga tanzt
+Es ist Sonny Black, Ghetto-Arroganz
+Deine Mutter will kein'n Beef, sondern Schwanz, yeah
+Ich hole wieder meine Cordon aus dem Waffenschrank
+Deutscher Rap ist nur ein Krüppel, der zu Ragga tanzt
+Es ist Sonny Black, Ghetto-Arroganz
+Deine Mutter will kein'n Beef, sondern Schwanz, yeah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,9 +864,80 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Songtext zu „Magazin für Magazine“][Part 1]Junge, ich seh' rot wie mein AMG-Mercedes-GurtRooz macht auf DJ Khaled, aber bleibt 'ne Fehl—Kotze, wenn ich dich in einer Badewanne seh'Jeder freut sich, wenn ich diesen kleinen Scharlatan zerleg'Du machst keine Interviews, Nutte, du machst FitnaHeute Hip-Hop, morgen voll auf Teile auf IbizaAugenringe hängen wie ein Dalí-PorträtFicke jeden Bastard, der in meinem Radius stehtDiese kleinen Medien reiten meinen SchwanzAria will grüßen, aber keiner gibt die HandIhr seid alle lediglich paar ZielscheibenFür die Deutschrap-Meme-Seiten, fütter' euch mit SchießeisenRoozy von Notre Dame wettete ins LeereSagt, ich käme nicht mehr in die SzeneDu Pflegefall, weißt du nicht, Bushido ist die Szene?Jedem, der mich dissen wollte, nehme ich die Ehre, Nutte[Hook]Lad' mein Magazin für die MagazineEs macht bang, bang, zwing' euch Nutten in die KnieLad' mein Magazin für die MagazineEs macht bang, bang und die Kritiker krepier'nLad' mein Magazin für die MagazineEs macht bang, bang, zwing' euch Nutten in die KnieLad' mein Magazin für die MagazineEs macht bang, bang und die Kritiker krepier'n
-[Part 2]Setz' ein'n Riesenhaufen Scheiße auf die ganze PresseUnd spucke dieser Visa Vie in ihre AknefresseHast du echt gedacht, du machst 'n Joke, kleine Hoe?Und reitest dich damit nicht in den Tod, kleine Hoe?Nimm deine Entschuldigung und schieb sie in dein PickelfaceEine Nase Koks von Marsimoto und die Schnitte bläst​laut.de schreibt schon wieder krasse ReviewsUnd alle ihre acht Leser stimmen ihn'n zuNutte, das ist Sonny Black, du weißt, wie es läuftMC Bogys allergrößter Feind ist der Joint​rap.de war ein relevantes MagazinDoch Oliver trieb sie ganz allein in den RuinMorgen sagt ihr wieder, „Das war alles doch nur Spaß“Doch ich lade wieder nach, lade wieder nachWas passierte eigentlich mit diesem JUICE-Magazin?Ach ja, jeder kackt auf euer Hurensohn-Team![Hook]Lad' mein Magazin für die MagazineEs macht bang, bang, zwing' euch Nutten in die KnieLad' mein Magazin für die MagazineEs macht bang, bang und die Kritiker krepier'nLad' mein Magazin für die MagazineEs macht bang, bang, zwing' euch Nutten in die KnieLad' mein Magazin für die MagazineEs macht bang, bang und die Kritiker krepier'n
-[Part 3]Piss' auf eure Reviews, spucke auf ReactionsGib mir nur ein Sample und ich mache wieder ActionHiphop.de kann sich gerne einmal fickenNuttenkinder spiel'n in der Freizeit JournalistenJeder weiß, ihr Fotzen seid ein Haufen voller MissgeburtenWer interessiert sich für euch Witzfigur'n?Schacht und Wasabi komm'n mit KritikDoch niemand interessiert sich für den Moppel und den FreakWische meinen Arsch mit dei'm Gesicht abFür euch Pussys hab' ich immer wieder Whiskas, Nutte, und ihr wisst das16BARS füttern ihre Stephanie mit CookiesDarum sieht sie aus wie Ali Bumaye im HoodieLeon Lovelock macht im Internet auf 2PacDoch kriegt Schläge in sei'm KuhkaffPredigt was von krassen Werten, aber denkt, die Erde wär 'ne ScheibeDicka, laber keine Scheiße![Hook]Lad' mein Magazin für die MagazineEs macht bang, bang, zwing' euch Nutten in die KnieLad' mein Magazin für die MagazineEs macht bang, bang und die Kritiker krepier'nLad' mein Magazin für die MagazineEs macht bang, bang, zwing' euch Nutten in die KnieLad' mein Magazin für die MagazineEs macht bang, bang und die Kritiker krepier'n</t>
+          <t>[Songtext zu „Magazin für Magazine“]
+[Part 1]
+Junge, ich seh' rot wie mein AMG-Mercedes-Gurt
+Rooz macht auf DJ Khaled, aber bleibt 'ne Fehl—
+Kotze, wenn ich dich in einer Badewanne seh'
+Jeder freut sich, wenn ich diesen kleinen Scharlatan zerleg'
+Du machst keine Interviews, Nutte, du machst Fitna
+Heute Hip-Hop, morgen voll auf Teile auf Ibiza
+Augenringe hängen wie ein Dalí-Porträt
+Ficke jeden Bastard, der in meinem Radius steht
+Diese kleinen Medien reiten meinen Schwanz
+Aria will grüßen, aber keiner gibt die Hand
+Ihr seid alle lediglich paar Zielscheiben
+Für die Deutschrap-Meme-Seiten, fütter' euch mit Schießeisen
+Roozy von Notre Damewettete ins Leere
+Sagt, ich käme nicht mehr in die Szene
+Du Pflegefall, weißt du nicht, Bushido ist die Szene?
+Jedem, der mich dissen wollte, nehme ich die Ehre, Nutte
+[Hook]
+Lad' mein Magazin für die Magazine
+Es macht bang, bang, zwing' euch Nutten in die Knie
+Lad' mein Magazin für die Magazine
+Es macht bang, bang und die Kritiker krepier'n
+Lad' mein Magazin für die Magazine
+Es macht bang, bang, zwing' euch Nutten in die Knie
+Lad' mein Magazin für die Magazine
+Es macht bang, bang und die Kritiker krepier'n
+[Part 2]
+Setz' ein'n Riesenhaufen Scheiße auf die ganze Presse
+Und spucke dieser Visa Vie in ihre AknefresseHast du echt gedacht, du machst 'n Joke, kleine Hoe?Und reitest dich damit nicht in den Tod, kleine Hoe?Nimm deine Entschuldigung und schieb sie in dein PickelfaceEine Nase Koks von Marsimoto und die Schnitte bläst
+​laut.deschreibt schon wieder krasse Reviews
+Und alle ihre acht Leser stimmen ihn'n zu
+Nutte, das ist Sonny Black, du weißt, wie es läuft
+MC Bogys allergrößter Feind ist der Joint
+​rap.de war ein relevantes MagazinDoch Oliver trieb sie ganz allein in den Ruin
+Morgen sagt ihr wieder, „Das war alles doch nur Spaß“
+Doch ich lade wieder nach, lade wieder nach
+Was passierte eigentlich mit diesemJUICE-Magazin?
+Ach ja, jeder kackt auf euer Hurensohn-Team!
+[Hook]
+Lad' mein Magazin für die Magazine
+Es macht bang, bang, zwing' euch Nutten in die Knie
+Lad' mein Magazin für die Magazine
+Es macht bang, bang und die Kritiker krepier'n
+Lad' mein Magazin für die Magazine
+Es macht bang, bang, zwing' euch Nutten in die Knie
+Lad' mein Magazin für die Magazine
+Es macht bang, bang und die Kritiker krepier'n
+[Part 3]
+Piss' auf eure Reviews, spucke auf Reactions
+Gib mir nur ein Sample und ich mache wieder Action
+Hiphop.de kann sich gerne einmal ficken
+Nuttenkinder spiel'n in der Freizeit Journalisten
+Jeder weiß, ihr Fotzen seid ein Haufen voller Missgeburten
+Wer interessiert sich für euch Witzfigur'n?
+Schacht und Wasabi komm'n mit Kritik
+Doch niemand interessiert sich für den Moppel und den Freak
+Wische meinen Arsch mit dei'm Gesicht ab
+Für euch Pussys hab' ich immer wieder Whiskas, Nutte, und ihr wisst das
+16BARS füttern ihre Stephanie mit Cookies
+Darum sieht sie aus wie Ali Bumaye im Hoodie
+Leon Lovelock macht im Internet auf 2Pac
+Doch kriegt Schläge in sei'm Kuhkaff
+Predigt was von krassen Werten, aber denkt, die Erde wär 'ne Scheibe
+Dicka, laber keine Scheiße!
+[Hook]
+Lad' mein Magazin für die Magazine
+Es macht bang, bang, zwing' euch Nutten in die Knie
+Lad' mein Magazin für die Magazine
+Es macht bang, bang und die Kritiker krepier'n
+Lad' mein Magazin für die Magazine
+Es macht bang, bang, zwing' euch Nutten in die Knie
+Lad' mein Magazin für die Magazine
+Es macht bang, bang und die Kritiker krepier'n</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -685,9 +991,60 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Songtext zu „H.M.P.2 (Heavy Metal Payback 2)“][Part 1: Saad]Ich hab' ohne abzudrücken LibanesenrückenJetzt wird Baba Saad Frank White seine Karriere fickenIch hab' nicht ma' was gegen diesen Schwanz gehabtAber er macht immer weiter, denkt, er wäre anders krassWenn du Spast sagst, du kommst mit einhundert, komm' ich dann mit dreihundertKeiner nimmt euch ernst, Dicka, ich fick' dich und dein'n SultanJeder G aus deiner Stadt nennt dich SchäferhundCCN II, du warst Opfеr, ich war Täter, PunktFDM-Slang, du bist Opfer, ich bin Täter, PunktDamals ficktе Farid deine Mutter, du sagst: „Hey, na und?“Du machst auf ehrenvoll und redest wie ein ganz KrasserDieser Spast tut, als wär Electro Smog Al FakherAuf einmal wird aus meinen Landsmännern JunkiesDamals hatt ich Liebe, Samra, jetzt bin ich antiWir sind Männer mit dem Zedernbaum auf dem PassNichts mit Tilidin zu tun, weil der Scheiß nicht zu uns passt[Hook: Bushido]Heavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist PaybackHeavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist Payback
-[Part 2: Animus]Ah, ich rappe ohne Konkurrenz und bleibe konsequentFler Hurensohn in Songs zu nenn'n ist wie ein KomplimentDu Nuttensohn, ich pisse, wenn du stirbst, in deinen SargUnd leg' die Goldene für „Ronin“ hinterher noch an dein GrabVielleicht ist es für euch Spaß, aber ihr Hunde habt kein GlückDenn jeden, der mich mal erwähnte, fick' ich hundertfach zurückDadash, für Alim ist Bushido sowas wie ein SexsymbolDarum nennt er seine Alte wie sein RapidolMit über vierzig wollte Manuellsen noch im Ghetto spiel'nDoch Mois bezahlte diesen Dayyuth mit einem Happy MealLass mal eure Politik, ich hör mir keine Märchen anWenn ich mit Hunden reden möchte, ruf ich eure Herrchen anMein Werdegang und eurer ist ein Unterschied wie Tag und NachtIch ficke Shirins Mutter nur, damit sie einen Vater hatUnd Daddy gibt euch ganzen kleinen Hurensöhnen HausarrestFür euch hat sich's ausgerappt, Sonny Black II[Hook: Bushido]Heavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist PaybackHeavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist Payback
-[Part 3: Bushido]Wenn ich zuschlage, liegst du in 'ner BlutlacheFlers Mutter trinkt Bukkake wie 'ne Club-MateWelchen Bastard jucken deine Punchlines?Und wieso reimt sich Frank Weiß immer noch auf Angstschweiß?Sinan schreibt in seiner Badewanne krasse TexteAber musste sich in Essen-City auf 'ne Flasche setzenIch bin der Vater dieser Szene, ihr seid NachmacherWenn ich komme, läuft dein Arschwasser so wie ZahnpastaIch bin kein Klassensprecher, Nutte, ich bin Asi-RapperUnd benutze JUICE-Coverblätter jetzt als AschenbecherBleibe immer noch der, der dich ficktUnd ellaOne benutzt jetzt Roozy als ihr WerbegesichtJeder Hundesohn will Stress, sag mir, wo kommt ihr nur her?S-O-N-N-Y, Ghetto-Militär, yeahTriggerwarnung, deine Mutter mag GesichtsbesamungIn der Konsistenz von Kindernahrung, Twi[Hook: Bushido]Heavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist PaybackHeavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist Payback</t>
+          <t>[Songtext zu „H.M.P.2 (Heavy Metal Payback 2)“]
+[Part 1: Saad]
+Ich hab' ohne abzudrücken Libanesenrücken
+Jetzt wird Baba Saad Frank White seine Karriere ficken
+Ich hab' nicht ma' was gegen diesen Schwanz gehabt
+Aber er macht immer weiter, denkt, er wäre anders krass
+Wenn du Spast sagst, du kommst mit einhundert, komm' ich dann mit dreihundert
+Keiner nimmt euch ernst, Dicka, ich fick' dich und dein'n Sultan
+Jeder G aus deiner Stadt nennt dich Schäferhund
+CCN II, du warst Opfеr, ich war Täter, Punkt
+FDM-Slang, du bist Opfer, ich bin Täter, Punkt
+Damals ficktе Farid deine Mutter, du sagst: „Hey, na und?“
+Du machst auf ehrenvoll und redest wie ein ganz Krasser
+Dieser Spast tut, als wär Electro Smog Al Fakher
+Auf einmal wird aus meinen Landsmännern Junkies
+Damals hatt ich Liebe, Samra, jetzt bin ich antiWir sind Männer mit dem Zedernbaum auf dem Pass
+Nichts mit Tilidin zu tun, weil der Scheiß nicht zu uns passt
+[Hook: Bushido]
+Heavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist PaybackHeavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist Payback
+[Part 2: Animus]
+Ah, ich rappe ohne Konkurrenz und bleibe konsequent
+Fler Hurensohn in Songs zu nenn'n ist wie ein Kompliment
+Du Nuttensohn, ich pisse, wenn du stirbst, in deinen Sarg
+Und leg' die Goldene für „Ronin“ hinterher noch an dein Grab
+Vielleicht ist es für euch Spaß, aber ihr Hunde habt kein Glück
+Denn jeden, der mich mal erwähnte, fick' ich hundertfach zurück
+Dadash, für Alim ist Bushido sowas wie ein SexsymbolDarum nennt er seine Alte wie sein Rapidol
+Mit über vierzig wollte Manuellsen noch im Ghetto spiel'nDoch Mois bezahlte diesen Dayyuth mit einem Happy Meal
+Lass mal eure Politik, ich hör mir keine Märchen an
+Wenn ich mit Hunden reden möchte, ruf ich eure Herrchen an
+Mein Werdegang und eurer ist ein Unterschied wie Tag und Nacht
+Ich ficke Shirins Mutter nur, damit sie einen Vater hat
+Und Daddy gibt euch ganzen kleinen Hurensöhnen Hausarrest
+Für euch hat sich's ausgerappt, Sonny Black II
+[Hook: Bushido]
+Heavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist PaybackHeavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist Payback
+[Part 3: Bushido]
+Wenn ich zuschlage, liegst du in 'ner Blutlache
+Flers Mutter trinkt Bukkake wie 'ne Club-Mate
+Welchen Bastard jucken deine Punchlines?
+Und wieso reimt sich Frank Weiß immer noch auf Angstschweiß?
+Sinan schreibt in seiner Badewanne krasse Texte
+Aber musste sich in Essen-City auf 'ne Flasche setzen
+Ich bin der Vater dieser Szene, ihr seid Nachmacher
+Wenn ich komme, läuft dein Arschwasser so wie Zahnpasta
+Ich bin kein Klassensprecher, Nutte, ich bin Asi-Rapper
+Und benutze JUICE-Coverblätter jetzt als Aschenbecher
+Bleibe immer noch der, der dich fickt
+Und ellaOne benutzt jetzt Roozy als ihr Werbegesicht
+Jeder Hundesohn will Stress, sag mir, wo kommt ihr nur her?
+S-O-N-N-Y, Ghetto-Militär, yeah
+Triggerwarnung, deine Mutter mag GesichtsbesamungIn der Konsistenz von Kindernahrung, Twi
+[Hook: Bushido]
+Heavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist PaybackHeavy-Metal-Rap, neun Millimeter, S. BlackWer sucht jetzt Stress? Nehm' dir dein Geschäft wegDas ist kein Backpack-Rap, Carlo-FlashbackIch fick' euch ASAP, du Opfer, jetzt ist Payback</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,8 +1098,66 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Songtext zu „Narben“][Part 1]Berlin, Staatsfeind, Deutschrap, GrabsteinTätowiert, immigriert, Ronin, Dark KnightAmazon, Primetime, Kameras, BlitzlichtRappe, weil dieses Game ohne mich nichts istPlatin, selfmade, Heavy-Weight, RapstarKickdown, A2, Turbo, NASCARDubai, Offshore-Company, WeißglutBitcoin-Mining, Krypto-ReichtumMeetings, Checklist, Aktien-InvestPeter Rossberg, Anruf, IndexRolls-Royce Phantom, Felgen schwarzmattSB2 kommt, ihr seid schachmattArchitekt, Schwarzbau, Eigentum, GrundrissOldschool, Newschool, Halsband, MundfickCordon Sport, Audemars, Werbedeal, Nike AirRooz schläft im Karton, Elm Street, NightmareBlaulicht, Rotlicht, Mobb Deep, „Shook Ones“VdSzBz, Sultan Hengzt lutscht SchwanzNeue Gang, alter Slang, ich bin der SensemannSamra, Teufelskreis, Kokain, Pentagramm[Hook]Die Narben, die ich trage, sie machten mich zu demKanaken, den sie hassen, denn ich bleib' ein PhänomenDie Narben, die ich trage, ich kann sie nicht mehr zähl'nDoch den neuen AMG zahl' ich souveränDie Narben, die ich trage, sie machten mich zu demKanaken, den sie hassen, denn ich bleib' ein PhänomenDie Narben, die ich trage, ich kann sie nicht mehr zähl'nDoch den neuen AMG zahl' ich souverän
-[Part 2]Präsident, Residenz, fick dein FutonNummer-eins-Autor, nächstes Buch kommtEmirates, First-Class, Business, LuxusDresden, Einbruch, Kabel, KurzschlussBTM, FDM, Maske, Skifahr'nKönig im Affenstall, Auge, Shir KhanWandsafe, Duct Tape, Hochhaus, AbsprungAttentat, Schauplatz, Achtung, AchtungFluchtweg, Ausfahrt, Panzer, BMWAuftrag, Messi, Transfer, PSGStreetfight, Schienbein, Kopf auf BaseyMMA, Tapout, Rickson GracieChainsaw-Massaker, Deutschrap, BlutbadHurensohn, mach mir jetzt nicht auf 2PacIch bleib' Rockstar, ihr nur OpfersMCB, Onkel B, Penner-PodcastSchwarzgeld, Kartell, Fahndung, StichtagSprengstoff, Razzia, Blackout, GiftgasSPIEGEL, BILDplus, check mal Google ChromePatrick ist und bleibt ein Hurensohn[Hook]Die Narben, die ich trage, sie machten mich zu demKanaken, den sie hassen, denn ich bleib' ein PhänomenDie Narben, die ich trage, ich kann sie nicht mehr zähl'nDoch den neuen AMG zahl' ich souveränDie Narben, die ich trage, sie machten mich zu demKanaken, den sie hassen, denn ich bleib' ein PhänomenDie Narben, die ich trage, ich kann sie nicht mehr zähl'nDoch den neuen AMG zahl' ich souverän</t>
+          <t>[Songtext zu „Narben“]
+[Part 1]
+Berlin, Staatsfeind, Deutschrap, Grabstein
+Tätowiert, immigriert, Ronin, Dark Knight
+Amazon, Primetime, Kameras, Blitzlicht
+Rappe, weil dieses Game ohne mich nichts ist
+Platin, selfmade, Heavy-Weight, Rapstar
+Kickdown, A2, Turbo, NASCAR
+Dubai, Offshore-Company, Weißglut
+Bitcoin-Mining, Krypto-Reichtum
+Meetings, Checklist, Aktien-Invest
+Peter Rossberg, Anruf, Index
+Rolls-Royce Phantom, Felgen schwarzmatt
+SB2kommt, ihr seid schachmatt
+Architekt, Schwarzbau, Eigentum, Grundriss
+Oldschool, Newschool, Halsband, Mundfick
+Cordon Sport, Audemars, Werbedeal, Nike Air
+Rooz schläft im Karton, Elm Street, Nightmare
+Blaulicht, Rotlicht,Mobb Deep, „Shook Ones“
+VdSzBz, Sultan Hengzt lutscht Schwanz
+Neue Gang, alter Slang, ich bin der Sensemann
+Samra, Teufelskreis, Kokain, Pentagramm
+[Hook]
+Die Narben, die ich trage, sie machten mich zu dem
+Kanaken, den sie hassen, denn ich bleib' ein Phänomen
+Die Narben, die ich trage, ich kann sie nicht mehr zähl'n
+Doch den neuen AMG zahl' ich souverän
+Die Narben, die ich trage, sie machten mich zu dem
+Kanaken, den sie hassen, denn ich bleib' ein Phänomen
+Die Narben, die ich trage, ich kann sie nicht mehr zähl'n
+Doch den neuen AMG zahl' ich souverän
+[Part 2]
+Präsident, Residenz, fick dein Futon
+Nummer-eins-Autor, nächstes Buch kommt
+Emirates, First-Class, Business, Luxus
+Dresden, Einbruch, Kabel, Kurzschluss
+BTM, FDM, Maske, Skifahr'n
+König im Affenstall, Auge, Shir Khan
+Wandsafe, Duct Tape, Hochhaus, Absprung
+Attentat, Schauplatz, Achtung, Achtung
+Fluchtweg, Ausfahrt, Panzer, BMWAuftrag, Messi, Transfer, PSG
+Streetfight, Schienbein, Kopf auf Basey
+MMA, Tapout, Rickson Gracie
+Chainsaw-Massaker, Deutschrap, Blutbad
+Hurensohn, mach mir jetzt nicht auf 2Pac
+Ich bleib' Rockstar, ihr nur Opfers
+MCB, Onkel B, Penner-Podcast
+Schwarzgeld, Kartell, Fahndung, Stichtag
+Sprengstoff, Razzia, Blackout, Giftgas
+SPIEGEL,BILDplus, check mal Google Chrome
+Patrick ist und bleibt ein Hurensohn
+[Hook]
+Die Narben, die ich trage, sie machten mich zu dem
+Kanaken, den sie hassen, denn ich bleib' ein Phänomen
+Die Narben, die ich trage, ich kann sie nicht mehr zähl'n
+Doch den neuen AMG zahl' ich souverän
+Die Narben, die ich trage, sie machten mich zu dem
+Kanaken, den sie hassen, denn ich bleib' ein Phänomen
+Die Narben, die ich trage, ich kann sie nicht mehr zähl'n
+Doch den neuen AMG zahl' ich souverän</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -796,8 +1211,59 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Songtext zu „Ghettofaust 2“][Intro]Yeah[Part 1]Es ist Mister Carlo-Cordon-Sport-MassenmordWarum machen blonde Piç-Rapper Kanaken-Talk?Ihr seid alle meine Eier wert, Sonny BlackErst wenn ich eure Mütter ficke, redet von euch Hunden keiner mehrFrank denkt, er wär mit mir auf einer StufeDein Schwanz Sultan Hengzt ist allerhöchstens eine StuteDicka, dein Level ist nicht mein LevеlWenn du auf dem Bordstein vеrblutest, hast du da dein scheiß BattleOhne Bushido-Beats klingst du Penner wie ScheißeDu hast sogar meine alten Hintermänner recyceltGeh zur Seite, Nutte, mach hier nicht auf MacherDamals schon ein Hurensohn und immer noch ein BastardJede Szenefotze will mich jetzt am Boden seh'nDas ganze Land ist mein Feind, aber ich bleib' souveränKing Bushido ist zurück und ihr habt AngstDenn echte Männer ficken mit dem Schwanz[Hook]Wer macht Rap wieder hardcore?Wer massakriert, aber flüchtet vom Tatort? (Tuck, tuck, tuck, tuck, tuck)Sagt mir, wer ist dieser Junge? Wer nimmt sich dein'n Arsch vor?Rap-Electro-Sound, Sonny Blacks Ghettofaust, yeahWer macht Rap wieder hardcore?Wer massakriert, aber flüchtet vom Tatort? (Tuck, tuck, tuck, tuck, tuck)Sagt mir, wer ist dieser Junge? Wer nimmt sich dein'n Arsch vor?Rap-Electro-Sound, Sonny Blacks Ghettofaust, yeah
-[Part 2]Der größte Ghettorapper BLNs ist S-Doppel-N BlackFranks Onkel bleibt CCN-PräsidentStreet-Raps Dirigent, bounce den Beat, dann ist Land unterEine Frage, warum reimt sich „Samrushka“ auf „Schwanzlutscher“?Damals noch ein RohdiamantHeute nur für Tilidin, Crack und Koka bekanntBushidos B lebt und immer noch bekannter als der BundesadlerEGJ-Labelboss, schon krass, wie viele Hunde da war'nIch mach' wieder, dass die Nuttenkinder schweigenMuss niemand was beweisen, aber wenn ich rappe, mach' ich euch zu WaisenKing Sonny Black wieder in TopformParallel dazu Frank und Sultan Hengzt in CockformNach dem Album wirken meine Feinde so wie kleine SpinnerAnis ist der Größte aller Zeiten, nenn mich Axel SpringerEuer Albtraum ist zurück und ihr habt AngstEchte Männer ficken mit der Faust oder mit dem Schwanz[Hook]Wer macht Rap wieder hardcore?Wer massakriert, aber flüchtet vom Tatort? (Tuck, tuck, tuck, tuck, tuck)Sagt mir, wer ist dieser Junge? Wer nimmt sich dein'n Arsch vor?Rap-Electro-Sound, Sonny Blacks Ghettofaust, yeahWer macht Rap wieder hardcore?Wer massakriert, aber flüchtet vom Tatort? (Tuck, tuck, tuck, tuck, tuck)Sagt mir, wer ist dieser Junge? Wer nimmt sich dein'n Arsch vor?Rap-Electro-Sound, Sonny Blacks Ghettofaust, yeah</t>
+          <t>[Songtext zu „Ghettofaust 2“]
+[Intro]
+Yeah
+[Part 1]
+Es ist Mister Carlo-Cordon-Sport-Massenmord
+Warum machen blonde Piç-Rapper Kanaken-Talk?
+Ihr seid alle meine Eier wert, Sonny Black
+Erst wenn ich eure Mütter ficke, redet von euch Hunden keiner mehr
+Frank denkt, er wär mit mir auf einer Stufe
+Dein Schwanz Sultan Hengzt ist allerhöchstens eine Stute
+Dicka, dein Level ist nicht mein Levеl
+Wenn du auf dem Bordstein vеrblutest, hast du da dein scheiß Battle
+Ohne Bushido-Beats klingst du Penner wie Scheiße
+Du hast sogar meine alten Hintermänner recycelt
+Geh zur Seite, Nutte, mach hier nicht auf Macher
+Damals schon ein Hurensohn und immer noch ein Bastard
+Jede Szenefotze will mich jetzt am Boden seh'n
+Das ganze Land ist mein Feind, aber ich bleib' souverän
+King Bushido ist zurück und ihr habt Angst
+Denn echte Männer ficken mit dem Schwanz
+[Hook]
+Wer macht Rap wieder hardcore?
+Wer massakriert, aber flüchtet vom Tatort? (Tuck, tuck, tuck, tuck, tuck)
+Sagt mir, wer ist dieser Junge? Wer nimmt sich dein'n Arsch vor?
+Rap-Electro-Sound, Sonny Blacks Ghettofaust, yeah
+Wer macht Rap wieder hardcore?
+Wer massakriert, aber flüchtet vom Tatort? (Tuck, tuck, tuck, tuck, tuck)
+Sagt mir, wer ist dieser Junge? Wer nimmt sich dein'n Arsch vor?
+Rap-Electro-Sound, Sonny Blacks Ghettofaust, yeah
+[Part 2]
+Der größte Ghettorapper BLNs ist S-Doppel-N Black
+Franks Onkel bleibt CCN-Präsident
+Street-Raps Dirigent, bounce den Beat, dann ist Land unter
+Eine Frage, warum reimt sich „Samrushka“ auf „Schwanzlutscher“?Damals noch ein RohdiamantHeute nur für Tilidin, Crack und Koka bekannt
+Bushidos B lebt und immer noch bekannter als der Bundesadler
+EGJ-Labelboss, schon krass, wie viele Hunde da war'n
+Ich mach' wieder, dass die Nuttenkinder schweigen
+Muss niemand was beweisen, aber wenn ich rappe, mach' ich euch zu Waisen
+King Sonny Black wieder in Topform
+Parallel dazu Frank und Sultan Hengzt in Cockform
+Nach dem Album wirken meine Feinde so wie kleine Spinner
+Anis ist der Größte aller Zeiten, nenn mich Axel Springer
+Euer Albtraum ist zurück und ihr habt Angst
+Echte Männer ficken mit der Faust oder mit dem Schwanz
+[Hook]
+Wer macht Rap wieder hardcore?
+Wer massakriert, aber flüchtet vom Tatort? (Tuck, tuck, tuck, tuck, tuck)
+Sagt mir, wer ist dieser Junge? Wer nimmt sich dein'n Arsch vor?
+Rap-Electro-Sound, Sonny Blacks Ghettofaust, yeah
+Wer macht Rap wieder hardcore?
+Wer massakriert, aber flüchtet vom Tatort? (Tuck, tuck, tuck, tuck, tuck)
+Sagt mir, wer ist dieser Junge? Wer nimmt sich dein'n Arsch vor?
+Rap-Electro-Sound, Sonny Blacks Ghettofaust, yeah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -851,9 +1317,64 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Songtext zu „Tote Fische“][Hook]Tote Fische schwimmen oben, denn das Wasser hier ist schwarzIch sage, was ich denke, und sie hassen meine ArtIrgendwelche Hurensöhne machen jetzt auf hartAber Sonny hat für keinen hier Platz in seinem ArschTote Fische schwimmen oben, denn das Wasser hier ist schwarzIch sage, was ich denke, und sie hassen meine ArtIrgendwеlche Hurensöhne machеn jetzt auf hartAber Sonny hat für keinen hier Platz in seinem Arsch[Part 1]Wieso machen kleine Hunde jetzt auf RockefellerMit ihrem Autotunegejaule aus dem Hobbykeller?Mois macht auf wichtig und im Internet auf hartAber Fotzen so wie dich disse ich hier nur zum Spaß, NutteDein Gejaule wie Sirenen bei 'nem KrankenwagenIch piss' von oben auf dein'n Kopf und du musst danke sagenDiese Schlangen wissen nicht, ich hab' 'nen langen AtemUnd wenn ich einmal starte,ma können sie dann lang nicht schlafenYeah, Mafiakontakte so wie MaradonaEs geht wieder back to bad boy – Sarah ConnorErsguterjunge, fick dein'n KarnevalsvereinIch tauche ab und schaue erst am Vatertag vorbeiSchwarze Augen sagen, deine Meute wird gebangtJede kleine Fotze redet heute in dem SlangIhr macht alle jetzt auf Bonze, doch seid immer noch auf Hartz IVIch mache, dass der Regen schwarz wird, yeah
-[Hook]Tote Fische schwimmen oben, denn das Wasser hier ist schwarzIch sage, was ich denke, und sie hassen meine ArtIrgendwelche Hurensöhne machen jetzt auf hartAber Sonny hat für keinen hier Platz in seinem ArschTote Fische schwimmen oben, denn das Wasser hier ist schwarzIch sage, was ich denke, und sie hassen meine ArtIrgendwelche Hurensöhne machen jetzt auf hartAber Sonny hat für keinen hier Platz in seinem Arsch[Part 2]Ich bin nicht gekomm'n, um irgendwem die Hand zu gebenSondern nur, um ein paar Pisser durch die Wand zu tretenWelche Schlampe redet immer noch von Beef?Yo Oli wurde mit paar Minderjährigen intim, NutteDiese Hampelmänner machen mir auf HantelstemmerWie Chakuza, dieser jämmerliche AlkipennerWas für „Suchen und zerstör'n“, kleiner Streber?Deine Sucht zerstörte allerhöchstens deine LeberHeavy-Metal-Raver, immer noch ein StarEine Frage, wo ist diese Rampensau Bahar, yeahSo viele Hunde, Mann, ich kann sie nicht mehr seh'nSag, was wollen diese ganzen Schlampen mir erzähl'n?Fick ma' euren Schlager, Junge, ich bin euer KarmaMache, dass du flüchtest wie der Wendler vor den SteuerfahndernDu kleiner Penner lebst am Ende nur von Hartz IVIch mache, dass der Regen schwarz wird, yeah
-[Hook]Tote Fische schwimmen oben, denn das Wasser hier ist schwarzIch sage, was ich denke, und sie hassen meine ArtIrgendwelche Hurensöhne machen jetzt auf hartAber Sonny hat für keinen hier Platz in seinem ArschTote Fische schwimmen oben, denn das Wasser hier ist schwarzIch sage, was ich denke, und sie hassen meine ArtIrgendwelche Hurensöhne machen jetzt auf hartAber Sonny hat für keinen hier Platz in seinem Arsch</t>
+          <t>[Songtext zu „Tote Fische“]
+[Hook]
+Tote Fische schwimmen oben, denn das Wasser hier ist schwarz
+Ich sage, was ich denke, und sie hassen meine Art
+Irgendwelche Hurensöhne machen jetzt auf hart
+Aber Sonny hat für keinen hier Platz in seinem Arsch
+Tote Fische schwimmen oben, denn das Wasser hier ist schwarz
+Ich sage, was ich denke, und sie hassen meine Art
+Irgendwеlche Hurensöhne machеn jetzt auf hart
+Aber Sonny hat für keinen hier Platz in seinem Arsch
+[Part 1]
+Wieso machen kleine Hunde jetzt auf Rockefeller
+Mit ihrem Autotunegejaule aus dem Hobbykeller?
+Mois macht auf wichtig und im Internet auf hartAber Fotzen so wie dich disse ich hier nur zum Spaß, Nutte
+Dein Gejaule wie Sirenen bei 'nem Krankenwagen
+Ich piss' von oben auf dein'n Kopf und du musst danke sagen
+Diese Schlangen wissen nicht, ich hab' 'nen langen Atem
+Und wenn ich einmal starte,ma können sie dann lang nicht schlafen
+Yeah, Mafiakontakte so wie Maradona
+Es geht wieder back to bad boy – Sarah Connor
+Ersguterjunge, fick dein'n Karnevalsverein
+Ich tauche ab und schaue erst am Vatertag vorbei
+Schwarze Augen sagen, deine Meute wird gebangt
+Jede kleine Fotze redet heute in dem Slang
+Ihr macht alle jetzt auf Bonze, doch seid immer noch auf Hartz IV
+Ich mache, dass der Regen schwarz wird, yeah
+[Hook]
+Tote Fische schwimmen oben, denn das Wasser hier ist schwarz
+Ich sage, was ich denke, und sie hassen meine Art
+Irgendwelche Hurensöhne machen jetzt auf hart
+Aber Sonny hat für keinen hier Platz in seinem Arsch
+Tote Fische schwimmen oben, denn das Wasser hier ist schwarz
+Ich sage, was ich denke, und sie hassen meine Art
+Irgendwelche Hurensöhne machen jetzt auf hart
+Aber Sonny hat für keinen hier Platz in seinem Arsch
+[Part 2]
+Ich bin nicht gekomm'n, um irgendwem die Hand zu geben
+Sondern nur, um ein paar Pisser durch die Wand zu treten
+Welche Schlampe redet immer noch von Beef?
+Yo Oli wurde mit paar Minderjährigen intim, Nutte
+Diese Hampelmänner machen mir auf HantelstemmerWie Chakuza, dieser jämmerliche AlkipennerWas für „Suchen und zerstör'n“, kleiner Streber?Deine Sucht zerstörte allerhöchstens deine Leber
+Heavy-Metal-Raver, immer noch ein Star
+Eine Frage, wo ist diese Rampensau Bahar, yeah
+So viele Hunde, Mann, ich kann sie nicht mehr seh'n
+Sag, was wollen diese ganzen Schlampen mir erzähl'n?
+Fick ma' euren Schlager, Junge, ich bin euer Karma
+Mache, dass du flüchtest wie der Wendler vor den Steuerfahndern
+Du kleiner Penner lebst am Ende nur von Hartz IV
+Ich mache, dass der Regen schwarz wird, yeah
+[Hook]
+Tote Fische schwimmen oben, denn das Wasser hier ist schwarz
+Ich sage, was ich denke, und sie hassen meine Art
+Irgendwelche Hurensöhne machen jetzt auf hart
+Aber Sonny hat für keinen hier Platz in seinem Arsch
+Tote Fische schwimmen oben, denn das Wasser hier ist schwarz
+Ich sage, was ich denke, und sie hassen meine Art
+Irgendwelche Hurensöhne machen jetzt auf hart
+Aber Sonny hat für keinen hier Platz in seinem Arsch</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -907,8 +1428,60 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Songtext zu „Sonny Brasco“][Intro]Yeah[Part 1]Ich komme immer noch bei Nacht so wie der SensenmannDeutscher Hip-Hop hängt sich immer noch an meinen Gangster-SchwanzHalte eure Paten wie ein'n Hund an der LeineLouis-Duffle-Bag voll mit Hunderterscheine, yeahWenn ich komme, ziehst du Missgeburt den Schwanz einDenn echte Gangster schwingen sicher nicht das TanzbeinBlack, Sonny, ich chill' mit dеr FamilieSamra chillt mit Nutten im Hotel und lеgt 'ne LinieWas wollt ihr Pisser mir erzählen über Straßenrap?Du dealst im Block, aber Sonny ist der ArchitektSie klauen alle meinen Style und den SoundMeine Snare, die Frisur, aber mucken mir dann aufNutte, bounce, wenn ich komme, von euch krieg' ich nicht mal SchürfwundenMein Album sorgt für ein Gewitter wie bei SpürhundenEs gibt keinen zweiten Künstler wie michSagt mir, wer hat noch mehr Mütter gefickt als ich, Nutte?[Hook]Wer kommt nachts durch deine Tür wie Inkasso?Fange jeden dieser Hunde mit dem LassoMeine Lieder laufen immer noch im Knasthof(Wer?) Sonny Brasco (Yeah), Sonny BrascoJeder Hurensohn macht plötzlich ein'n auf CastroKeiner sonst hat den Ich-bleibe-krass-FlowMeine Lieder laufen immer noch im Knasthof(Wer?) Sonny Brasco (Yeah), Sonny Brasco
-[Part 2]Sie graben alte Sachen aus, um mir zu schadenDoch ich sag' es euch wie damals, ihr könnt gerne alle blasen, NutteDeine Mutter wird im Tourbus gebangtDas ist der Grund, wieso man dich jetzt Hurensohn nennt, yeahFick dein'n R&amp;B, das hier ist nicht JodeciFür Roozy Baby sind die Timberlands OverkneesIch treffe jeden von euch, ohne zu ziel'nIhr seid nur Fotokopien, ich fick' dein'n Promotermin, yeahWeißer AMG, dreh' die Anlage aufSpuck' in dein Gesicht und auf die Anklage auchFicke deinen Freitag und die Samstage auchMal seh'n, wer sich jetzt noch eine Ansage trautMach mir nicht auf Dealer, denn ich kack' auf deine LiederDas Bushido-B ist das Wappen der BerlinerOb Nord oder Süd, ob Ost oder WestSonny Black ist der Boss im Geschäft, Nutte[Hook]Wer kommt nachts durch deine Tür wie Inkasso?Fange jeden dieser Hunde mit dem LassoMeine Lieder laufen immer noch im Knasthof(Wer?) Sonny Brasco (Yeah), Sonny BrascoJeder Hurensohn macht plötzlich ein'n auf CastroKeiner sonst hat den Ich-bleibe-krass-FlowMeine Lieder laufen immer noch im Knasthof(Wer?) Sonny Brasco (Yeah), Sonny Brasco</t>
+          <t>[Songtext zu „Sonny Brasco“]
+[Intro]
+Yeah
+[Part 1]
+Ich komme immer noch bei Nacht so wie der Sensenmann
+Deutscher Hip-Hop hängt sich immer noch an meinen Gangster-Schwanz
+Halte eure Paten wie ein'n Hund an der Leine
+Louis-Duffle-Bag voll mit Hunderterscheine, yeah
+Wenn ich komme, ziehst du Missgeburt den Schwanz einDenn echte Gangster schwingen sicher nicht das Tanzbein
+Black, Sonny, ich chill' mit dеr Familie
+Samra chillt mit Nutten im Hotel und lеgt 'ne Linie
+Was wollt ihr Pisser mir erzählen über Straßenrap?
+Du dealst im Block, aber Sonny ist der Architekt
+Sie klauen alle meinen Style und den Sound
+Meine Snare, die Frisur, aber mucken mir dann auf
+Nutte, bounce, wenn ich komme, von euch krieg' ich nicht mal Schürfwunden
+Mein Album sorgt für ein Gewitter wie bei Spürhunden
+Es gibt keinen zweiten Künstler wie mich
+Sagt mir, wer hat noch mehr Mütter gefickt als ich, Nutte?
+[Hook]
+Wer kommt nachts durch deine Tür wie Inkasso?
+Fange jeden dieser Hunde mit dem Lasso
+Meine Lieder laufen immer noch im Knasthof
+(Wer?) Sonny Brasco (Yeah), Sonny Brasco
+Jeder Hurensohn macht plötzlich ein'n auf Castro
+Keiner sonst hat den Ich-bleibe-krass-Flow
+Meine Lieder laufen immer noch im Knasthof
+(Wer?) Sonny Brasco (Yeah), Sonny Brasco
+[Part 2]
+Sie graben alte Sachen aus, um mir zu schaden
+Doch ich sag' es euch wie damals, ihr könnt gerne alle blasen, Nutte
+Deine Mutter wird im Tourbus gebangt
+Das ist der Grund, wieso man dich jetzt Hurensohn nennt, yeah
+Fick dein'n R&amp;B, das hier ist nicht Jodeci
+Für Roozy Baby sind die Timberlands Overknees
+Ich treffe jeden von euch, ohne zu ziel'n
+Ihr seid nur Fotokopien, ich fick' dein'n Promotermin, yeah
+Weißer AMG, dreh' die Anlage auf
+Spuck' in dein Gesicht und auf die Anklage auch
+Ficke deinen Freitag und die Samstage auch
+Mal seh'n, wer sich jetzt noch eine Ansage traut
+Mach mir nicht auf Dealer, denn ich kack' auf deine Lieder
+Das Bushido-B ist das Wappen der Berliner
+Ob Nord oder Süd, ob Ost oder West
+Sonny Black ist der Boss im Geschäft, Nutte
+[Hook]
+Wer kommt nachts durch deine Tür wie Inkasso?
+Fange jeden dieser Hunde mit dem Lasso
+Meine Lieder laufen immer noch im Knasthof
+(Wer?) Sonny Brasco (Yeah), Sonny Brasco
+Jeder Hurensohn macht plötzlich ein'n auf Castro
+Keiner sonst hat den Ich-bleibe-krass-Flow
+Meine Lieder laufen immer noch im Knasthof
+(Wer?) Sonny Brasco (Yeah), Sonny Brasco</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -962,9 +1535,64 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Songtext zu „90er Berlin“][Hook]Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den BeatWer vertickte über eine Tonne Kokain?Jage wieder diese Fotzen und verdoppel' den ProfitMeine Jeans in den Socken wie die 90er BerlinWenn die Hunde wieder renn'n, weißt du, Sonny bounct den BeatWer vertickte über eine Tonne Kokain?Jage wieder diese Fotzen und verdoppel' den ProfitMeine Jeans in den Socken wie die 90er Berlin[Part 1]Yeah, ich ficke kleine Opfer nebenbei im Nike-JoggerUnd deine Freizeitrocker rennen vor dem GeigenkofferSonny ist zurück und das ganze Land hat AngstDenn ich rede, wie ich will, und hab' die Hand an meinem Schwanz, NutteMister Carlo, Cordon-Sport-Kokain-ÄsthetikUnd deine Junkie-Rapper hab'n die Codein-ÄsthetikHalte deine Mutter wieder an der HundeleineUnd Rooz' Arme sind noch länger als die StummelbeineSag' den Spasten, ich bin Hip-Hop seit der achten KlasseDu siehst die Skyline kopfüber von der DachterrasseIch lasse jeden von euch ficken, wenn ihr Hunde belltDenn ich pflege immer noch Kontakte in die UnterweltKing seit über drei Dekaden, ruf den LeichenwagenDeine Gagen mache ich am Tag mit meinen Miningfarm'nEine Frage: Wer von diesen Fotzen wollte Krieg?Mach' die Jeans in die Socken wie die 90er Berlin, Nutte
-[Hook]Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den BeatWer vertickte über eine Tonne Kokain?Jage wieder diese Fotzen und verdoppel' den ProfitMeine Jeans in den Socken wie die 90er BerlinWenn die Hunde wieder renn'n, weißt du, Sonny bounct den BeatWer vertickte über eine Tonne Kokain?Jage wieder diese Fotzen und verdoppel' den ProfitMeine Jeans in den Socken wie die 90er Berlin[Part 2]Yeah, Fler und Hengzt sind für mich beide reine UnterhaltungIch hab' mit „Ronin“ mehr Erfolg als euer Hunde-AlbumAuto-Tune und Tanzen, und jetzt wieder ein'n auf hartAber gut kopiert ist lange nicht so wie das Orginal, NutteWo sind all die Hurensöhne hin, die damals dissten?Wenn der Beat wieder läuft, seid ihr PazifistenHat nicht jemand was von NRW-Verbot gebellt?Doch als ich da war, hat der Hampelmann sich totgestelltDamals packte ich die Scheine in die SchuhkartonsSprühte einen U-Wagon, hörte dabei 2Pac-SongsDu bist krass in deinem Block wegen SchlägereiDoch ich kauf' den ganzen Block einfach nebenbeiFühle mich wie '98 in mei'm TreppenhausDrücke euch noch immer Zigaretten in der Fresse ausSonny-Rap, Electro-Faust, NitroglyzerinMach' die Jeans in die Socken wie die 90er Berlin, Nutte
-[Hook]Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den BeatWer vertickte über eine Tonne Kokain?Jage wieder diese Fotzen und verdoppel' den ProfitMeine Jeans in den Socken wie die 90er BerlinWenn die Hunde wieder renn'n, weißt du, Sonny bounct den BeatWer vertickte über eine Tonne Kokain?Jage wieder diese Fotzen und verdoppel' den ProfitMeine Jeans in den Socken wie die 90er Berlin</t>
+          <t>[Songtext zu „90er Berlin“]
+[Hook]
+Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den Beat
+Wer vertickte über eine Tonne Kokain?
+Jage wieder diese Fotzen und verdoppel' den Profit
+Meine Jeans in den Socken wie die 90er Berlin
+Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den Beat
+Wer vertickte über eine Tonne Kokain?
+Jage wieder diese Fotzen und verdoppel' den Profit
+Meine Jeans in den Socken wie die 90er Berlin
+[Part 1]
+Yeah, ich ficke kleine Opfer nebenbei im Nike-Jogger
+Und deine Freizeitrocker rennen vor dem Geigenkoffer
+Sonny ist zurück und das ganze Land hat AngstDenn ich rede, wie ich will, und hab' die Hand an meinem Schwanz, Nutte
+Mister Carlo, Cordon-Sport-Kokain-Ästhetik
+Und deine Junkie-Rapper hab'n die Codein-Ästhetik
+Halte deine Mutter wieder an der Hundeleine
+Und Rooz' Arme sind noch länger als die Stummelbeine
+Sag' den Spasten, ich bin Hip-Hop seit der achten Klasse
+Du siehst die Skyline kopfüber von der Dachterrasse
+Ich lasse jeden von euch ficken, wenn ihr Hunde bellt
+Denn ich pflege immer noch Kontakte in die Unterwelt
+King seit über drei Dekaden, ruf den Leichenwagen
+Deine Gagen mache ich am Tag mit meinen Miningfarm'n
+Eine Frage: Wer von diesen Fotzen wollte Krieg?
+Mach' die Jeans in die Socken wie die 90er Berlin, Nutte
+[Hook]
+Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den Beat
+Wer vertickte über eine Tonne Kokain?
+Jage wieder diese Fotzen und verdoppel' den Profit
+Meine Jeans in den Socken wie die 90er Berlin
+Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den Beat
+Wer vertickte über eine Tonne Kokain?
+Jage wieder diese Fotzen und verdoppel' den Profit
+Meine Jeans in den Socken wie die 90er Berlin
+[Part 2]
+Yeah, Fler und Hengzt sind für mich beide reine UnterhaltungIch hab' mit „Ronin“ mehr Erfolg als euer Hunde-Album
+Auto-Tune und Tanzen, und jetzt wieder ein'n auf hartAber gut kopiert ist lange nicht so wie das Orginal, Nutte
+Wo sind all die Hurensöhne hin, die damals dissten?
+Wenn der Beat wieder läuft, seid ihr Pazifisten
+Hat nicht jemand was von NRW-Verbot gebellt?Doch als ich da war, hat der Hampelmann sich totgestellt
+Damals packte ich die Scheine in die Schuhkartons
+Sprühte einen U-Wagon, hörte dabei 2Pac-Songs
+Du bist krass in deinem Block wegen Schlägerei
+Doch ich kauf' den ganzen Block einfach nebenbei
+Fühle mich wie '98 in mei'm Treppenhaus
+Drücke euch noch immer Zigaretten in der Fresse aus
+Sonny-Rap, Electro-Faust, Nitroglyzerin
+Mach' die Jeans in die Socken wie die 90er Berlin, Nutte
+[Hook]
+Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den Beat
+Wer vertickte über eine Tonne Kokain?
+Jage wieder diese Fotzen und verdoppel' den Profit
+Meine Jeans in den Socken wie die 90er Berlin
+Wenn die Hunde wieder renn'n, weißt du, Sonny bounct den Beat
+Wer vertickte über eine Tonne Kokain?
+Jage wieder diese Fotzen und verdoppel' den Profit
+Meine Jeans in den Socken wie die 90er Berlin</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1018,9 +1646,77 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Songtext zu „Nie ein Rapper 3“][Part 1: Saad]Denn ich war nie ein Rapper, ich hab' mir alles selber beigebrachtMein Bruder sitzt nicht mehr in EinzelhaftEr hat es allein geschafft, nach all den Jahr'n ist er jetzt rausUnd ich bin da für ihn, er wusste das, er kann mir vertrau'nIch bin ich geblieben, Gott sei Dank, ich habe ErfolgMama ist stolz, ich trage meine Narben aus GoldBis heute sind die Wände stumme ZeugenDamals war ich einer dieser jungen LeuteDie wussten: Verrat gibt es unter FreundenIch musste lern'n, damit umzugeh'nDass sich heute viele Löwen wie ein Hund benehm'nGaben mir kein Gesicht, aber machen mir nachDoch meine Eier machten diese Nuttenkinder zu StarsIch nahm Rap in meine Hand und gab ihm eine StimmeUnd diese bleibt für immer, auch wenn alles ma' verschwindetDas bin ich und mein WerdegangWir greifen einmal nach den Stern'n und sterben dann[Hook: Bushido &amp; Saad]Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpftUnd meine Kinder seh'n mein Poster in dem Laden da häng'nDenn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'nDenn ich war nie ein Rapper, ich hab' für die Straßen gekämpftUnd meine Kinder seh'n mein Poster in dem Laden da häng'nDenn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust (Yeah), deswegen kann ich nicht wein'n
-[Part 2: Bushido]Denn ich war nie ein Rapper, guck, ich lebe heute den TraumDoch meine erste MPC im Leben musste ich klau'nIch baute einfach was aufDenn ihre Worte fake wie ihre Rolex und Klamotten, darum kann ich keinem vertrau'nEs gibt die Brücken nicht mehrDarum hab' ich meinem Rücken jetzt den Rücken gekehrtIch bin der Sklave von kei'mIch versuche nur, für meine Kinder jetzt ein guter Vater zu seinIhr habt die Tattoos von mir, habt das Ghetto von mirUnd gibt es Beef, kann keiner mit mir telefonier'nIch hab' den Teufel bekämpft und lenke heute den BenzDenn Gott sei Dank hab' ich immer noch die treuesten FansIch habe nie kapiert, was cool daran ist, Rapper zu seinUnd dennoch sehen sie mein Leben jetzt auf Amazon PrimeNein, ihr kriegt mich nicht klein, denn ich bin einer von den'nBei dem es keiner schaffen wird, ihm seine Freiheit zu nehm'n[Hook: Bushido &amp; Saad]Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpftUnd meine Kinder seh'n mein Poster in dem Laden da häng'nDenn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'nDenn ich war nie ein Rapper, ich hab' für die Straßen gekämpftUnd meine Kinder seh'n mein Poster in dem Laden da häng'nDenn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'n
-[Part 3: Bushido &amp; Saad]Denn ich war nie ein Rapper, Ich bin auf dem Boden gebliebenDiese neuen Rapper, sie sind nur auf Drogen und fliegenDenn ich war nie ein Rapper, ich trage nur Sachen, die passenUnd gebe immer noch ein'n Fick darauf, dass sie mich hassenDenn ich war nie Rapper, weil ich keine klein'n Kiffer kenn'Ich komm' aus Jnoub, nicht aus DisneylandDenn ich war nie ein Rapper und bin es immer noch nichtSogar zwanzig Jahre später bin ich immer noch ichDenn ich war nie ein Rapper, denn was ich werden wollte, bin ich jetztDie kleinen Junkie-Rapper zieh'n im Studio Billig-FlexUnd das Flex fickt die meisten, wenn sie runterkomm'nFür ein paar Klicks habt ihr Fotzen in den Mund genomm'nDoch was soll's, wir sind die letzten unsrer ArtDie letzten echten G's, Sonny Black und Saad, yeahPeilst du jetzt, warum hier keiner Rapper werden will?Denn wenn wir komm'n, sind eure Rapper still[Hook: Bushido &amp; Saad]Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpftUnd meine Kinder seh'n mein Poster in dem Laden da häng'nDenn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'nDenn ich war nie ein Rapper, ich hab' für die Straßen gekämpftUnd meine Kinder seh'n mein Poster in dem Laden da häng'nDenn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'n</t>
+          <t>[Songtext zu „Nie ein Rapper 3“]
+[Part 1: Saad]
+Denn ich war nie ein Rapper, ich hab' mir alles selber beigebracht
+Mein Bruder sitzt nicht mehr in Einzelhaft
+Er hat es allein geschafft, nach all den Jahr'n ist er jetzt raus
+Und ich bin da für ihn, er wusste das, er kann mir vertrau'n
+Ich bin ich geblieben, Gott sei Dank, ich habe Erfolg
+Mama ist stolz, ich trage meine Narben aus Gold
+Bis heute sind die Wände stumme Zeugen
+Damals war ich einer dieser jungen Leute
+Die wussten: Verrat gibt es unter Freunden
+Ich musste lern'n, damit umzugeh'n
+Dass sich heute viele Löwen wie ein Hund benehm'n
+Gaben mir kein Gesicht, aber machen mir nach
+Doch meine Eier machten diese Nuttenkinder zu Stars
+Ich nahm Rap in meine Hand und gab ihm eine Stimme
+Und diese bleibt für immer, auch wenn alles ma' verschwindet
+Das bin ich und mein Werdegang
+Wir greifen einmal nach den Stern'n und sterben dann
+[Hook: Bushido &amp;Saad]
+Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpft
+Und meine Kinder seh'n mein Poster in dem Laden da häng'n
+Denn ich war nie ein Rapper, ich wollt nie wie andere sein
+Ich hab' Beton in meiner Brust, deswegen kann ich nicht wein'n
+Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpft
+Und meine Kinder seh'n mein Poster in dem Laden da häng'n
+Denn ich war nie ein Rapper, ich wollt nie wie andere sein
+Ich hab' Beton in meiner Brust(Yeah), deswegen kann ich nicht wein'n
+[Part 2: Bushido]
+Denn ich war nie ein Rapper, guck, ich lebe heute den Traum
+Doch meine erste MPC im Leben musste ich klau'n
+Ich baute einfach was auf
+Denn ihre Worte fake wie ihre Rolex und Klamotten, darum kann ich keinem vertrau'n
+Es gibt die Brücken nicht mehr
+Darum hab' ich meinem Rücken jetzt den Rücken gekehrtIch bin der Sklave von kei'm
+Ich versuche nur, für meine Kinder jetzt ein guter Vater zu sein
+Ihr habt die Tattoos von mir, habt das Ghetto von mir
+Und gibt es Beef, kann keiner mit mir telefonier'n
+Ich hab' den Teufel bekämpft und lenke heute den Benz
+Denn Gott sei Dank hab' ich immer noch die treuesten Fans
+Ich habe nie kapiert, was cool daran ist, Rapper zu sein
+Und dennoch sehen sie mein Leben jetzt auf Amazon Prime
+Nein, ihr kriegt mich nicht klein, denn ich bin einer von den'n
+Bei dem es keiner schaffen wird, ihm seine Freiheit zu nehm'n
+[Hook: Bushido &amp; Saad]
+Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpft
+Und meine Kinder seh'n mein Poster in dem Laden da häng'n
+Denn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'n
+Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpft
+Und meine Kinder seh'n mein Poster in dem Laden da häng'n
+Denn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'n
+[Part 3: Bushido &amp; Saad]
+Denn ich war nie ein Rapper, Ich bin auf dem Boden gebliebenDiese neuen Rapper, sie sind nur auf Drogen und fliegen
+Denn ich war nie ein Rapper, ich trage nur Sachen, die passenUnd gebe immer noch ein'n Fick darauf, dass sie mich hassenDenn ich war nie Rapper, weil ich keine klein'n Kiffer kenn'Ich komm' aus Jnoub, nicht aus Disneyland
+Denn ich war nie ein Rapper und bin es immer noch nicht
+Sogar zwanzig Jahre später bin ich immer noch ich
+Denn ich war nie ein Rapper, denn was ich werden wollte, bin ich jetzt
+Die kleinen Junkie-Rapper zieh'n im Studio Billig-Flex
+Und das Flex fickt die meisten, wenn sie runterkomm'n
+Für ein paar Klicks habt ihr Fotzen in den Mund genomm'n
+Doch was soll's, wir sind die letzten unsrer Art
+Die letzten echten G's, Sonny Black und Saad, yeah
+Peilst du jetzt, warum hier keiner Rapper werden will?
+Denn wenn wir komm'n, sind eure Rapper still
+[Hook: Bushido &amp; Saad]
+Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpft
+Und meine Kinder seh'n mein Poster in dem Laden da häng'n
+Denn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'n
+Denn ich war nie ein Rapper, ich hab' für die Straßen gekämpft
+Und meine Kinder seh'n mein Poster in dem Laden da häng'n
+Denn ich war nie ein Rapper, ich wollt nie wie andere seinIch hab' Beton in meiner Brust, deswegen kann ich nicht wein'n</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1074,8 +1770,62 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Songtext zu „MPC aus Gold“][Intro]Yeah[Part 1]Fick dein Camp und dein'n Missgeburt-VereinAlle, die dich Bastard kenn'n, wissen, was ich mein'Typen so wie du komm'n genauso wie sie geh'nDenn kaum wird es heiß, dann verschwinden sie wie SchneeGehe ganz allein mein'n Weg, JungeBrauche kein'n hier im Game, JungeAußer meiner MPC, JungeMachte Hits mit einem AchtspurgеrätSchrieb im Knast meine Tеxte, nachts unter Trän'n, yeahIch bin ein Berliner, Nutte, du bist kein BerlinerGeh mir auf die Nerven und ich breche deinen KieferKenne jede Ecke und die Typen, die da steh'nUm es raus zu schaffen, musst du früh genug versteh'nGanz allein in meinem Zimmer, liebte rappen und das sampelnSo wurd ich unsterblich, wen wollt ihr canceln?Meine Stimme ist wie hunderttausend VoltWenn ich gehe, hinterlass' ich eine MPC aus Gold[Hook]Sie sind grade eine Woche da und reden von ErfolgMachen ein'n auf Leader, doch sind immer nur gefolgtTypen so wie ich, ja, sie nehmen, was sie woll'nIch bin ein ersguterjunge mit 'ner MPC aus GoldSie sind grade eine Woche da und reden von ErfolgMachen ein'n auf Leader, doch sind immer nur gefolgtTypen so wie ich, ja, sie nehmen, was sie woll'nIch bin ein ersguterjunge mit 'ner MPC aus Gold
-[Part 2]Mein Vermächtnis bleibt in dei'm GedächtnisAußer Family ist alles nur geschäftlichJeder Beat hat eine eigene GeschichteUnd macht deine Beats einfach so zunichteIch bin Untergrund, auch mit hundert PlatinplattenHab' an mich geglaubt, weil andre keine Ahnung hattenAls ich oben war, wollte jeder mitDoch unten dachte jeder nur, ich hätte mich geficktDieses Leben hat ein'n Preis und die Schuhe, die ich trag'Würden dir nicht passen, denn du Hure bist zu zartDas Leben eine Prüfung und das Ghetto macht dich hartImmer noch den Turban gewickelt um den BartEin echter Mann kümmert sich um seine FamilyDenn meine Kinder sind die einzig wahre LegacyUnbezahlbar, ich hoffe, sie sind stolzWenn ich gehe, hinterlass' ich eine MPC aus Gold[Hook]Sie sind grade eine Woche da und reden von ErfolgMachen ein'n auf Leader, doch sind immer nur gefolgtTypen so wie ich, ja, sie nehmen, was sie woll'nIch bin ein ersguterjunge mit 'ner MPC aus GoldSie sind grade eine Woche da und reden von ErfolgMachen ein'n auf Leader, doch sind immer nur gefolgtTypen so wie ich, ja, sie nehmen, was sie woll'nIch bin ein ersguterjunge mit 'ner MPC aus Gold</t>
+          <t>[Songtext zu „MPC aus Gold“]
+[Intro]
+Yeah
+[Part 1]
+Fick dein Camp und dein'n Missgeburt-Verein
+Alle, die dich Bastard kenn'n, wissen, was ich mein'
+Typen so wie du komm'n genauso wie sie geh'n
+Denn kaum wird es heiß, dann verschwinden sie wie Schnee
+Gehe ganz allein mein'n Weg, Junge
+Brauche kein'n hier im Game, Junge
+Außer meiner MPC, Junge
+Machte Hits mit einem Achtspurgеrät
+Schrieb im Knast meine Tеxte, nachts unter Trän'n, yeah
+Ich bin ein Berliner, Nutte, du bist kein Berliner
+Geh mir auf die Nerven und ich breche deinen Kiefer
+Kenne jede Ecke und die Typen, die da steh'n
+Um es raus zu schaffen, musst du früh genug versteh'n
+Ganz allein in meinem Zimmer, liebte rappen und das sampeln
+So wurd ich unsterblich, wen wollt ihr canceln?
+Meine Stimme ist wie hunderttausend Volt
+Wenn ich gehe, hinterlass' ich eine MPC aus Gold
+[Hook]
+Sie sind grade eine Woche da und reden von Erfolg
+Machen ein'n auf Leader, doch sind immer nur gefolgt
+Typen so wie ich, ja, sie nehmen, was sie woll'n
+Ich bin ein ersguterjunge mit 'ner MPC aus Gold
+Sie sind grade eine Woche da und reden von Erfolg
+Machen ein'n auf Leader, doch sind immer nur gefolgt
+Typen so wie ich, ja, sie nehmen, was sie woll'n
+Ich bin ein ersguterjunge mit 'ner MPC aus Gold
+[Part 2]
+Mein Vermächtnis bleibt in dei'm Gedächtnis
+Außer Family ist alles nur geschäftlich
+Jeder Beat hat eine eigene Geschichte
+Und macht deine Beats einfach so zunichte
+Ich bin Untergrund, auch mit hundert Platinplatten
+Hab' an mich geglaubt, weil andre keine Ahnung hatten
+Als ich oben war, wollte jeder mit
+Doch unten dachte jeder nur, ich hätte mich gefickt
+Dieses Leben hat ein'n Preis und die Schuhe, die ich trag'
+Würden dir nicht passen, denn du Hure bist zu zart
+Das Leben eine Prüfung und das Ghetto macht dich hart
+Immer noch den Turban gewickelt um den Bart
+Ein echter Mann kümmert sich um seine Family
+Denn meine Kinder sind die einzig wahre Legacy
+Unbezahlbar, ich hoffe, sie sind stolz
+Wenn ich gehe, hinterlass' ich eine MPC aus Gold
+[Hook]
+Sie sind grade eine Woche da und reden von Erfolg
+Machen ein'n auf Leader, doch sind immer nur gefolgt
+Typen so wie ich, ja, sie nehmen, was sie woll'n
+Ich bin ein ersguterjunge mit 'ner MPC aus Gold
+Sie sind grade eine Woche da und reden von Erfolg
+Machen ein'n auf Leader, doch sind immer nur gefolgt
+Typen so wie ich, ja, sie nehmen, was sie woll'n
+Ich bin ein ersguterjunge mit 'ner MPC aus Gold</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1129,8 +1879,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Songtext zu „Untouched“][Intro]Yeah[Part 1]Scheiß auf deine Liga, Mann, ich spiel' in meiner eigenenKeiner hier auf meinem Level, auch wenn ich alleine rappeWas bringt die Kugel, wenn die Kugel nicht fliegt?Denn auch 'ne gute Kopie, bleibt nur 'ne KopieDu kannst nein sagen, aber du bist Fan von BushidoDer Style, der Bart, die Möchtegern-TätowierungAlles kommt von mir, denn mich gab es zuerstMister Cordon Sport, Sonny, Gangsterrap-MillionärVon mir etwas lern'n ist nicht machbarBlack, ich bin Aslan, der, der immer schon ein Ass warDu kannst tun was ich tu', aberEs gibt nur ein'n Kapitän mit der Nummer zehn, TsubasaSie können alle Welle machen, aber ruf' ich anHört sich jeder deutsche Rapper wie mein Groupie anWeil sie wissen, wer das Zepter in der Hand hatUnd solang ich da bin, bleibt es untouched[Hook]Ihr könnt es jedes Mal versuchen, mich jedes Mal verfluchenBushido, ich hab' die alten Geister nicht gerufenSie komm'n wie von selbst und auf einmal wird dir andersNachdem du merkst, ich bin untouchedIhr könnt es jedes Mal versuchen, mich jedes Mal verfluchenBushido, ich hab' die alten Geister nicht gerufenSie komm'n wie von selbst und auf einmal wird dir andersNachdem du merkst, ich bin untouched (Yeah)
-[Part 2]Sonny, ich war nie vergleichbar mit den anderenTöte alle, weil ich wie der große Alexander binMeine Feinde, ich lasse sie tun, was sie tunDer Versuch mich zu ficken aber bleibt ein VersuchIch bin der mit dem allergrößten Einfluss, hierHabt ihr einen Song, jetzt könnt ihr ihn einstudier'nRapper sind nur meine Mini-Mes, es ist wie 'ne EpidemieDoch ich bin hier der Einzige, der irgendeine Welle schiebtBlack bounct den Beat und dann läuft es automatischWieder ein Bushido-Album, jeder hat darauf gewartetDenn sie wissen, wenn ich da bin, hält hier jeder Mal den Rand anWie Van Damme boxe ich diese Szene back zum AnfangHab' den 90-BPM-Trend in die Welt gesetztIm Endeffekt bin ich der, der bis zum Ende rapptWeil ich dieses gottverdammte Zepter in der Hand hab'Und solang ich da bin, bleibt es untouched[Hook]Ihr könnt es jedes Mal versuchen, mich jedes Mal verfluchenBushido, ich hab' die alten Geister nicht gerufenSie komm'n wie von selbst und auf einmal wird dir andersNachdem du merkst, ich bin untouchedIhr könnt es jedes Mal versuchen, mich jedes Mal verfluchenBushido, ich hab' die alten Geister nicht gerufenSie komm'n wie von selbst und auf einmal wird dir andersNachdem du merkst, ich bin untouched</t>
+          <t>[Songtext zu „Untouched“]
+[Intro]
+Yeah
+[Part 1]
+Scheiß auf deine Liga, Mann, ich spiel' in meiner eigenen
+Keiner hier auf meinem Level, auch wenn ich alleine rappe
+Was bringt die Kugel, wenn die Kugel nicht fliegt?
+Denn auch 'ne gute Kopie, bleibt nur 'ne Kopie
+Du kannst nein sagen, aber du bist Fan von Bushido
+Der Style, der Bart, die Möchtegern-Tätowierung
+Alles kommt von mir, denn mich gab es zuerst
+Mister Cordon Sport, Sonny, Gangsterrap-Millionär
+Von mir etwas lern'n ist nicht machbar
+Black, ich bin Aslan, der, der immer schon ein Ass war
+Du kannst tun was ich tu', aber
+Es gibt nur ein'n Kapitän mit der Nummer zehn, Tsubasa
+Sie können alle Welle machen, aber ruf' ich an
+Hört sich jeder deutsche Rapper wie mein Groupie an
+Weil sie wissen, wer das Zepter in der Hand hat
+Und solang ich da bin, bleibt es untouched
+[Hook]
+Ihr könnt es jedes Mal versuchen, mich jedes Mal verfluchen
+Bushido, ich hab' die alten Geister nicht gerufen
+Sie komm'n wie von selbst und auf einmal wird dir anders
+Nachdem du merkst, ich bin untouched
+Ihr könnt es jedes Mal versuchen, mich jedes Mal verfluchen
+Bushido, ich hab' die alten Geister nicht gerufen
+Sie komm'n wie von selbst und auf einmal wird dir anders
+Nachdem du merkst, ich bin untouched (Yeah)
+[Part 2]
+Sonny, ich war nie vergleichbar mit den anderen
+Töte alle, weil ich wie der große Alexander bin
+Meine Feinde, ich lasse sie tun, was sie tun
+Der Versuch mich zu ficken aber bleibt ein Versuch
+Ich bin der mit dem allergrößten Einfluss, hier
+Habt ihr einen Song, jetzt könnt ihr ihn einstudier'n
+Rapper sind nur meine Mini-Mes, es ist wie 'ne Epidemie
+Doch ich bin hier der Einzige, der irgendeine Welle schiebt
+Black bounct den Beat und dann läuft es automatisch
+Wieder ein Bushido-Album, jeder hat darauf gewartet
+Denn sie wissen, wenn ich da bin, hält hier jeder Mal den Rand an
+Wie Van Damme boxe ich diese Szene back zum Anfang
+Hab' den 90-BPM-Trend in die Welt gesetzt
+Im Endeffekt bin ich der, der bis zum Ende rappt
+Weil ich dieses gottverdammte Zepter in der Hand hab'
+Und solang ich da bin, bleibt es untouched
+[Hook]
+Ihr könnt es jedes Mal versuchen, mich jedes Mal verfluchen
+Bushido, ich hab' die alten Geister nicht gerufen
+Sie komm'n wie von selbst und auf einmal wird dir anders
+Nachdem du merkst, ich bin untouched
+Ihr könnt es jedes Mal versuchen, mich jedes Mal verfluchen
+Bushido, ich hab' die alten Geister nicht gerufen
+Sie komm'n wie von selbst und auf einmal wird dir anders
+Nachdem du merkst, ich bin untouched</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1184,9 +1987,65 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Songtext zu „Familie“ ft. Aaliyah][Part 1: Bushido]Ich war mein ganzes Leben ganz allein auf mich gestelltUnd auf einmal, da erblicktet ihr das Licht der WeltIch hab' der Frau aus meinen Träumen einen Ring gegebenSie hat meinem Leben durch euch wieder einen Sinn gegebenIch schaue jetzt mit andern Augen in die Welt hinausDenn eurе Wärme wiegt für mich die ganzе Kälte aufSollen sie mich alle hassen und beleidigenDoch euer Schutz ist meine Pflicht bei all meinen EntscheidungenIch könnt mir niemals mehr verzeihen, euch im Stich zu lassenUnd bin okay damit, wenn das ihr Grund ist, mich zu hassenWenn es sein muss, dann riskier’ ich für euch EinzelhaftDenn Vater sein hat keiner eurem Vater beigebrachtDie Welt, in der ich lebte, war nicht kunterbuntUnd deswegen geh'n sie immer auf mein'n wunden PunktIhr seid für mich der Inbegriff von LiebeIch brauche nichts auf dieser Welt, nur meine Familie[Hook: Bushido, Bushido &amp; Aaliyah]Und wenn der Beat nicht mehr läuft und alles leise istZählen alle meine Goldenen und Preise nichtKomme ich zu euch nach Hause, bin ich einfach ichDenn das Wichtigste im Leben ist FamilieUnd wenn der Beat nicht mehr läuft und die Halle schließtSollt ihr wissen, dass ich euch über alles lieb’Trage euch in meinem Herzen und verlass' euch nieDenn das Wichtigste im Leben ist Familie
-[Part 2]Mein Gangsterrapper-Image bundesweit so legendärDoch neben euch ist diese ganze Scheiße sekundärIch war damals jung und wusste es nicht besserBin fast gestorben vor Angst um eure SchwesterEs kommt der Punkt, ja, dann musst du dich entscheidenDenkst du an dich selbst oder denkst du an die Klein'n?Bin ich da für meine Frau oder lass' ich sie alleineUnd geh' zehn Jahre rein? Denn das wollen meine FeindeAaliyah, deine blauen Augen sind mein HorizontMein Licht bei Dunkelheit, ich folg' ihm wie dem OrionDjibi und Laila, ihr habt euch Mamas Bauch geteiltIch möchte, dass es in der Welt da draußen auch so bleibtEy Issa, du bist wie ein Spiegelbild für michIch hoff', du machst niemals die gleichen Fehler so wie ichMontry, wir beide gehen über unser Blut hinausIch bin immer da, wenn du mich brauchst[Hook: Bushido, Bushido &amp; Aaliyah]Und wenn der Beat nicht mehr läuft und alles leise istZählen alle meine Goldenen und Preise nichtKomme ich zu euch nach Hause, bin ich einfach ichDenn das Wichtigste im Leben ist FamilieUnd wenn der Beat nicht mehr läuft und die Halle schließtSollt ihr wissen, dass ich euch über alles lieb'Trage euch in meinem Herzen und verlass’ euch nieDenn das Wichtigste im Leben ist Familie
-[Post-Hook: Bushido &amp; Aaliyah]Und wenn der Beat nicht mehr läuft und alles leise istZählen alle meine Goldenen und Preise nichtKomme ich zu euch nach Hause, bin ich einfach ichDas Wichtigste im Leben ist Familie[Hook: Bushido, Bushido &amp; Aaliyah]Und wenn der Beat nicht mehr läuft und die Halle schließtSollt ihr wissen, dass ich euch über alles lieb’Trage euch in meinem Herzen und verlass' euch nieDenn das Wichtigste im Leben ist Familie</t>
+          <t>[Songtext zu „Familie“ ft. Aaliyah]
+[Part 1: Bushido]
+Ich war mein ganzes Leben ganz allein auf mich gestellt
+Und auf einmal, da erblicktet ihr das Licht der Welt
+Ich hab' der Frau aus meinen Träumen einen Ring gegebenSie hat meinem Leben durch euch wieder einen Sinn gegeben
+Ich schaue jetzt mit andern Augen in die Welt hinaus
+Denn eurе Wärme wiegt für mich die ganzе Kälte auf
+Sollen sie mich alle hassen und beleidigen
+Doch euer Schutz ist meine Pflicht bei all meinen Entscheidungen
+Ich könnt mir niemals mehr verzeihen, euch im Stich zu lassen
+Und bin okay damit, wenn das ihr Grund ist, mich zu hassen
+Wenn es sein muss, dann riskier’ ich für euch Einzelhaft
+Denn Vater sein hat keiner eurem Vater beigebracht
+Die Welt, in der ich lebte, war nicht kunterbunt
+Und deswegen geh'n sie immer auf mein'n wunden Punkt
+Ihr seid für mich der Inbegriff von Liebe
+Ich brauche nichts auf dieser Welt, nur meine Familie
+[Hook: Bushido,Bushido &amp; Aaliyah]
+Und wenn der Beat nicht mehr läuft und alles leise ist
+Zählen alle meine Goldenen und Preise nicht
+Komme ich zu euch nach Hause, bin ich einfach ich
+Denndas Wichtigste im Leben ist Familie
+Und wenn der Beat nicht mehr läuft und die Halle schließt
+Sollt ihr wissen, dass ich euch über alles lieb’
+Trage euch in meinem Herzen und verlass' euch nie
+Denndas Wichtigste im Leben ist Familie
+[Part 2]
+Mein Gangsterrapper-Image bundesweit so legendär
+Doch neben euch ist diese ganze Scheiße sekundär
+Ich war damals jung und wusste es nicht besser
+Bin fast gestorben vor Angst um eure Schwester
+Es kommt der Punkt, ja, dann musst du dich entscheiden
+Denkst du an dich selbst oder denkst du an die Klein'n?
+Bin ich da für meine Frau oder lass' ich sie alleine
+Und geh' zehn Jahre rein? Denn das wollen meine Feinde
+Aaliyah, deine blauen Augen sind mein Horizont
+Mein Licht bei Dunkelheit, ich folg' ihm wie dem Orion
+Djibi und Laila, ihr habt euch Mamas Bauch geteiltIch möchte, dass es in der Welt da draußen auch so bleibt
+Ey Issa, du bist wie ein Spiegelbild für michIch hoff', du machst niemals die gleichen Fehler so wie ich
+Montry, wir beide gehen über unser Blut hinausIch bin immer da, wenn du mich brauchst
+[Hook: Bushido, Bushido &amp; Aaliyah]
+Und wenn der Beat nicht mehr läuft und alles leise ist
+Zählen alle meine Goldenen und Preise nicht
+Komme ich zu euch nach Hause, bin ich einfach ich
+Denn das Wichtigste im Leben ist Familie
+Und wenn der Beat nicht mehr läuft und die Halle schließt
+Sollt ihr wissen, dass ich euch über alles lieb'
+Trage euch in meinem Herzen und verlass’ euch nie
+Denn das Wichtigste im Leben ist Familie
+[Post-Hook: Bushido &amp; Aaliyah]
+Und wenn der Beat nicht mehr läuft und alles leise ist
+Zählen alle meine Goldenen und Preise nicht
+Komme ich zu euch nach Hause, bin ich einfach ich
+Das Wichtigste im Leben ist Familie
+[Hook: Bushido, Bushido &amp; Aaliyah]
+Und wenn der Beat nicht mehr läuft und die Halle schließt
+Sollt ihr wissen, dass ich euch über alles lieb’
+Trage euch in meinem Herzen und verlass' euch nie
+Denn das Wichtigste im Leben ist Familie</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +2099,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Songtext zu „Outro“][Part]Das hier wird kein Abschied, das hier wird ein MachtwortJunge, denn mein Lifestyle ist immer noch ein BloodsportImmer noch der Streetfighter-Van-Damme-StyleLauf' in eure Szene wieder mit der Pumpgun reinIhr könnt mich nicht kaufen, Talent ist unbezahlbarNur weil ich deine Mutter ficke, bin ich nicht dein VaterSie dachten für ein'n Augenblick, sie wären KonkurrentеnDoch merken, Sonny kann man nicht kopierеn oder cancelnJunge aus der Großstadt, ich bin ein BerlinerZwei Millionen reichen nicht, Sonny macht den Deal klarEltern sind im Himmel, schauen runter auf ihr'n SohnMeine Kinder schauen rauf zu ihrem Vater auf dem ThronRapper zittern, hören sie einmal den Namen, den sie kenn'nVom Staatsfeind Nummer eins zum StaatspräsidentKomm, ich zeig' dir einen Zaubertrick, du musst nur einmal blinzelnUnd ich lasse jeden von euch einfach so verschwindenEuern Rapstyle ficke ich in EchtzeitEure Disses gleichen einer bodenlosen FrechheitAls würd mein Sohn mich beleidigen mit Nam'nDenn die ganze Szene hier ist ein Produkt aus meinem Sam'nEure Looks, eure Beats, euern Style, die ÄsthetikÜber einhundertmal Gold, Nutte, also red nichtNichts passierte aus Verseh'nDu hast dir diesen Weg hier ausgesucht, ich wurd für diesen Weg hier auserwählt</t>
+          <t>[Songtext zu „Outro“]
+[Part]
+Das hier wird kein Abschied, das hier wird ein Machtwort
+Junge, denn mein Lifestyle ist immer noch ein Bloodsport
+Immer noch der Streetfighter-Van-Damme-Style
+Lauf' in eure Szene wieder mit der Pumpgun rein
+Ihr könnt mich nicht kaufen, Talent ist unbezahlbar
+Nur weil ich deine Mutter ficke, bin ich nicht dein Vater
+Sie dachten für ein'n Augenblick, sie wären Konkurrentеn
+Doch merken, Sonny kann man nicht kopierеn oder canceln
+Junge aus der Großstadt, ich bin ein Berliner
+Zwei Millionen reichen nicht, Sonny macht den Deal klar
+Eltern sind im Himmel, schauen runter auf ihr'n Sohn
+Meine Kinder schauen rauf zu ihrem Vater auf dem Thron
+Rapper zittern, hören sie einmal den Namen, den sie kenn'n
+Vom Staatsfeind Nummer eins zum Staatspräsident
+Komm, ich zeig' dir einen Zaubertrick, du musst nur einmal blinzeln
+Und ich lasse jeden von euch einfach so verschwinden
+Euern Rapstyle ficke ich in Echtzeit
+Eure Disses gleichen einer bodenlosen Frechheit
+Als würd mein Sohn mich beleidigen mit Nam'n
+Denn die ganze Szene hier ist ein Produkt aus meinem Sam'n
+Eure Looks, eure Beats, euern Style, die Ästhetik
+Über einhundertmal Gold, Nutte, also red nicht
+Nichts passierte aus Verseh'n
+Du hast dir diesen Weg hier ausgesucht, ich wurd für diesen Weg hier auserwählt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
